--- a/2022-08-18 Prepare for UTSA/SGLT2.sn.aggr.info.xlsx
+++ b/2022-08-18 Prepare for UTSA/SGLT2.sn.aggr.info.xlsx
@@ -2954,37 +2954,37 @@
         <v>23181.0</v>
       </c>
       <c r="N12" t="n">
-        <v>38035.0</v>
+        <v>93916.0</v>
       </c>
       <c r="O12" t="n">
-        <v>1958.0</v>
+        <v>2508.0</v>
       </c>
       <c r="P12" t="n">
-        <v>8.81700744E8</v>
+        <v>2.177064134E9</v>
       </c>
       <c r="Q12" t="n">
         <v>97.9</v>
       </c>
       <c r="R12" t="n">
-        <v>59.3</v>
+        <v>76.5</v>
       </c>
       <c r="S12" t="n">
-        <v>96.4</v>
+        <v>96.2</v>
       </c>
       <c r="T12" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="U12" t="e">
         <v>#N/A</v>
       </c>
       <c r="V12" t="n">
-        <v>95.9</v>
+        <v>95.6</v>
       </c>
       <c r="W12" t="n">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="X12" t="n">
-        <v>92.2</v>
+        <v>92.0</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
@@ -2993,22 +2993,22 @@
         <v>57.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>26.0</v>
+        <v>25.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>60.4</v>
+        <v>60.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>82.2</v>
+        <v>82.1</v>
       </c>
       <c r="AE12" t="n">
-        <v>29875.0</v>
+        <v>30355.0</v>
       </c>
       <c r="AF12" t="n">
-        <v>3459.0</v>
+        <v>4873.0</v>
       </c>
       <c r="AG12" t="s">
         <v>104</v>

--- a/2022-08-18 Prepare for UTSA/SGLT2.sn.aggr.info.xlsx
+++ b/2022-08-18 Prepare for UTSA/SGLT2.sn.aggr.info.xlsx
@@ -74,40 +74,40 @@
     <t>Q30 Bases in RNA Read</t>
   </si>
   <si>
+    <t>Q30 Bases in UMI</t>
+  </si>
+  <si>
+    <t>Reads Mapped to Genome</t>
+  </si>
+  <si>
+    <t>Reads Mapped Confidently to Genome</t>
+  </si>
+  <si>
+    <t>Reads Mapped Confidently to Intergenic Regions</t>
+  </si>
+  <si>
+    <t>Reads Mapped Confidently to Intronic Regions</t>
+  </si>
+  <si>
+    <t>Reads Mapped Confidently to Exonic Regions</t>
+  </si>
+  <si>
+    <t>Reads Mapped Confidently to Transcriptome</t>
+  </si>
+  <si>
+    <t>Reads Mapped Antisense to Gene</t>
+  </si>
+  <si>
+    <t>Fraction Reads in Cells</t>
+  </si>
+  <si>
+    <t>Total Genes Detected</t>
+  </si>
+  <si>
+    <t>Median UMI Counts per Cell</t>
+  </si>
+  <si>
     <t>Q30 Bases in Sample Index</t>
-  </si>
-  <si>
-    <t>Q30 Bases in UMI</t>
-  </si>
-  <si>
-    <t>Reads Mapped to Genome</t>
-  </si>
-  <si>
-    <t>Reads Mapped Confidently to Genome</t>
-  </si>
-  <si>
-    <t>Reads Mapped Confidently to Intergenic Regions</t>
-  </si>
-  <si>
-    <t>Reads Mapped Confidently to Intronic Regions</t>
-  </si>
-  <si>
-    <t>Reads Mapped Confidently to Exonic Regions</t>
-  </si>
-  <si>
-    <t>Reads Mapped Confidently to Transcriptome</t>
-  </si>
-  <si>
-    <t>Reads Mapped Antisense to Gene</t>
-  </si>
-  <si>
-    <t>Fraction Reads in Cells</t>
-  </si>
-  <si>
-    <t>Total Genes Detected</t>
-  </si>
-  <si>
-    <t>Median UMI Counts per Cell</t>
   </si>
   <si>
     <t>Agg</t>
@@ -944,41 +944,41 @@
       <c r="T2" t="n">
         <v>93.1</v>
       </c>
-      <c r="U2" t="e">
-        <v>#N/A</v>
+      <c r="U2" t="n">
+        <v>95.1</v>
       </c>
       <c r="V2" t="n">
-        <v>95.1</v>
+        <v>97.1</v>
       </c>
       <c r="W2" t="n">
-        <v>97.1</v>
+        <v>91.4</v>
       </c>
       <c r="X2" t="n">
-        <v>91.4</v>
+        <v>8.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.0</v>
+        <v>60.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>60.1</v>
+        <v>23.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>23.3</v>
+        <v>69.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.5</v>
+        <v>12.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>12.0</v>
+        <v>81.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>81.9</v>
+        <v>28312.0</v>
       </c>
       <c r="AE2" t="n">
-        <v>28312.0</v>
-      </c>
-      <c r="AF2" t="n">
         <v>4261.0</v>
+      </c>
+      <c r="AF2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG2" t="s">
         <v>104</v>
@@ -1147,41 +1147,41 @@
       <c r="T3" t="n">
         <v>93.2</v>
       </c>
-      <c r="U3" t="e">
-        <v>#N/A</v>
+      <c r="U3" t="n">
+        <v>94.6</v>
       </c>
       <c r="V3" t="n">
-        <v>94.6</v>
+        <v>94.8</v>
       </c>
       <c r="W3" t="n">
-        <v>94.8</v>
+        <v>87.3</v>
       </c>
       <c r="X3" t="n">
-        <v>87.3</v>
+        <v>8.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.6</v>
+        <v>57.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>57.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA3" t="n">
-        <v>20.8</v>
+        <v>68.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>68.4</v>
+        <v>8.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>71.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>71.8</v>
+        <v>28143.0</v>
       </c>
       <c r="AE3" t="n">
-        <v>28143.0</v>
-      </c>
-      <c r="AF3" t="n">
         <v>5188.0</v>
+      </c>
+      <c r="AF3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG3" t="s">
         <v>104</v>
@@ -1350,41 +1350,41 @@
       <c r="T4" t="n">
         <v>92.4</v>
       </c>
-      <c r="U4" t="e">
-        <v>#N/A</v>
+      <c r="U4" t="n">
+        <v>94.3</v>
       </c>
       <c r="V4" t="n">
-        <v>94.3</v>
+        <v>94.7</v>
       </c>
       <c r="W4" t="n">
-        <v>94.7</v>
+        <v>87.7</v>
       </c>
       <c r="X4" t="n">
-        <v>87.7</v>
+        <v>8.3</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.3</v>
+        <v>60.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>60.2</v>
+        <v>19.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>19.2</v>
+        <v>68.6</v>
       </c>
       <c r="AB4" t="n">
-        <v>68.6</v>
+        <v>8.9</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.9</v>
+        <v>82.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>82.8</v>
+        <v>29313.0</v>
       </c>
       <c r="AE4" t="n">
-        <v>29313.0</v>
-      </c>
-      <c r="AF4" t="n">
         <v>12182.0</v>
+      </c>
+      <c r="AF4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG4" t="s">
         <v>104</v>
@@ -1553,41 +1553,41 @@
       <c r="T5" t="n">
         <v>93.3</v>
       </c>
-      <c r="U5" t="e">
-        <v>#N/A</v>
+      <c r="U5" t="n">
+        <v>94.9</v>
       </c>
       <c r="V5" t="n">
-        <v>94.9</v>
+        <v>96.0</v>
       </c>
       <c r="W5" t="n">
-        <v>96.0</v>
+        <v>89.9</v>
       </c>
       <c r="X5" t="n">
-        <v>89.9</v>
+        <v>8.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.1</v>
+        <v>60.3</v>
       </c>
       <c r="Z5" t="n">
-        <v>60.3</v>
+        <v>21.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.5</v>
+        <v>68.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>68.2</v>
+        <v>11.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.7</v>
+        <v>89.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>89.6</v>
+        <v>29020.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>29020.0</v>
-      </c>
-      <c r="AF5" t="n">
         <v>7138.0</v>
+      </c>
+      <c r="AF5" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG5" t="s">
         <v>104</v>
@@ -1756,41 +1756,41 @@
       <c r="T6" t="n">
         <v>94.1</v>
       </c>
-      <c r="U6" t="e">
-        <v>#N/A</v>
+      <c r="U6" t="n">
+        <v>95.6</v>
       </c>
       <c r="V6" t="n">
-        <v>95.6</v>
+        <v>94.7</v>
       </c>
       <c r="W6" t="n">
-        <v>94.7</v>
+        <v>89.1</v>
       </c>
       <c r="X6" t="n">
-        <v>89.1</v>
+        <v>8.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>53.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>53.4</v>
+        <v>27.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>27.2</v>
+        <v>58.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>58.2</v>
+        <v>20.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>20.9</v>
+        <v>87.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>87.5</v>
+        <v>30216.0</v>
       </c>
       <c r="AE6" t="n">
-        <v>30216.0</v>
-      </c>
-      <c r="AF6" t="n">
         <v>5774.0</v>
+      </c>
+      <c r="AF6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG6" t="s">
         <v>104</v>
@@ -1959,41 +1959,41 @@
       <c r="T7" t="n">
         <v>91.4</v>
       </c>
-      <c r="U7" t="e">
-        <v>#N/A</v>
+      <c r="U7" t="n">
+        <v>94.7</v>
       </c>
       <c r="V7" t="n">
-        <v>94.7</v>
+        <v>92.5</v>
       </c>
       <c r="W7" t="n">
-        <v>92.5</v>
+        <v>84.8</v>
       </c>
       <c r="X7" t="n">
-        <v>84.8</v>
+        <v>8.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>56.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>56.9</v>
+        <v>19.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.5</v>
+        <v>66.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>66.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.6</v>
+        <v>74.0</v>
       </c>
       <c r="AD7" t="n">
-        <v>74.0</v>
+        <v>27459.0</v>
       </c>
       <c r="AE7" t="n">
-        <v>27459.0</v>
-      </c>
-      <c r="AF7" t="n">
         <v>3098.0</v>
+      </c>
+      <c r="AF7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG7" t="s">
         <v>104</v>
@@ -2162,41 +2162,41 @@
       <c r="T8" t="n">
         <v>93.6</v>
       </c>
-      <c r="U8" t="e">
-        <v>#N/A</v>
+      <c r="U8" t="n">
+        <v>95.8</v>
       </c>
       <c r="V8" t="n">
-        <v>95.8</v>
+        <v>95.5</v>
       </c>
       <c r="W8" t="n">
-        <v>95.5</v>
+        <v>87.2</v>
       </c>
       <c r="X8" t="n">
-        <v>87.2</v>
+        <v>7.9</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.9</v>
+        <v>56.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>56.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.2</v>
+        <v>55.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>55.2</v>
+        <v>22.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>22.7</v>
+        <v>75.0</v>
       </c>
       <c r="AD8" t="n">
-        <v>75.0</v>
+        <v>30186.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>30186.0</v>
-      </c>
-      <c r="AF8" t="n">
         <v>6401.0</v>
+      </c>
+      <c r="AF8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG8" t="s">
         <v>104</v>
@@ -2365,41 +2365,41 @@
       <c r="T9" t="n">
         <v>93.1</v>
       </c>
-      <c r="U9" t="e">
-        <v>#N/A</v>
+      <c r="U9" t="n">
+        <v>95.6</v>
       </c>
       <c r="V9" t="n">
-        <v>95.6</v>
+        <v>95.8</v>
       </c>
       <c r="W9" t="n">
-        <v>95.8</v>
+        <v>89.5</v>
       </c>
       <c r="X9" t="n">
-        <v>89.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.5</v>
+        <v>54.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>54.8</v>
+        <v>27.1</v>
       </c>
       <c r="AA9" t="n">
-        <v>27.1</v>
+        <v>63.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>63.7</v>
+        <v>16.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>16.6</v>
+        <v>85.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>85.8</v>
+        <v>30263.0</v>
       </c>
       <c r="AE9" t="n">
-        <v>30263.0</v>
-      </c>
-      <c r="AF9" t="n">
         <v>4527.0</v>
+      </c>
+      <c r="AF9" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG9" t="s">
         <v>104</v>
@@ -2568,41 +2568,41 @@
       <c r="T10" t="n">
         <v>92.9</v>
       </c>
-      <c r="U10" t="e">
-        <v>#N/A</v>
+      <c r="U10" t="n">
+        <v>94.3</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3</v>
+        <v>95.8</v>
       </c>
       <c r="W10" t="n">
-        <v>95.8</v>
+        <v>90.5</v>
       </c>
       <c r="X10" t="n">
-        <v>90.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.4</v>
+        <v>60.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>60.8</v>
+        <v>22.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>22.3</v>
+        <v>53.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>53.7</v>
+        <v>27.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>27.9</v>
+        <v>82.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>82.4</v>
+        <v>30088.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>30088.0</v>
-      </c>
-      <c r="AF10" t="n">
         <v>6185.0</v>
+      </c>
+      <c r="AF10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG10" t="s">
         <v>104</v>
@@ -2771,41 +2771,41 @@
       <c r="T11" t="n">
         <v>93.6</v>
       </c>
-      <c r="U11" t="e">
-        <v>#N/A</v>
+      <c r="U11" t="n">
+        <v>95.6</v>
       </c>
       <c r="V11" t="n">
-        <v>95.6</v>
+        <v>96.2</v>
       </c>
       <c r="W11" t="n">
-        <v>96.2</v>
+        <v>90.8</v>
       </c>
       <c r="X11" t="n">
-        <v>90.8</v>
+        <v>9.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.0</v>
+        <v>60.9</v>
       </c>
       <c r="Z11" t="n">
-        <v>60.9</v>
+        <v>20.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.9</v>
+        <v>55.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>55.6</v>
+        <v>24.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>24.8</v>
+        <v>73.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>73.4</v>
+        <v>30143.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>30143.0</v>
-      </c>
-      <c r="AF11" t="n">
         <v>6361.0</v>
+      </c>
+      <c r="AF11" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG11" t="s">
         <v>104</v>
@@ -2974,41 +2974,41 @@
       <c r="T12" t="n">
         <v>94.5</v>
       </c>
-      <c r="U12" t="e">
-        <v>#N/A</v>
+      <c r="U12" t="n">
+        <v>95.6</v>
       </c>
       <c r="V12" t="n">
-        <v>95.6</v>
+        <v>96.8</v>
       </c>
       <c r="W12" t="n">
-        <v>96.8</v>
+        <v>92.0</v>
       </c>
       <c r="X12" t="n">
-        <v>92.0</v>
+        <v>8.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>57.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>57.6</v>
+        <v>25.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>25.9</v>
+        <v>60.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>60.3</v>
+        <v>21.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>21.6</v>
+        <v>82.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>82.1</v>
+        <v>30355.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>30355.0</v>
-      </c>
-      <c r="AF12" t="n">
         <v>4873.0</v>
+      </c>
+      <c r="AF12" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG12" t="s">
         <v>104</v>
@@ -3177,41 +3177,41 @@
       <c r="T13" t="n">
         <v>94.3</v>
       </c>
-      <c r="U13" t="e">
-        <v>#N/A</v>
+      <c r="U13" t="n">
+        <v>95.8</v>
       </c>
       <c r="V13" t="n">
         <v>95.8</v>
       </c>
       <c r="W13" t="n">
-        <v>95.8</v>
+        <v>89.8</v>
       </c>
       <c r="X13" t="n">
-        <v>89.8</v>
+        <v>8.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.4</v>
+        <v>58.9</v>
       </c>
       <c r="Z13" t="n">
-        <v>58.9</v>
+        <v>22.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>22.6</v>
+        <v>57.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>57.6</v>
+        <v>22.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>22.3</v>
+        <v>83.0</v>
       </c>
       <c r="AD13" t="n">
-        <v>83.0</v>
+        <v>29995.0</v>
       </c>
       <c r="AE13" t="n">
-        <v>29995.0</v>
-      </c>
-      <c r="AF13" t="n">
         <v>5013.0</v>
+      </c>
+      <c r="AF13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG13" t="s">
         <v>104</v>
@@ -3380,41 +3380,41 @@
       <c r="T14" t="n">
         <v>94.2</v>
       </c>
-      <c r="U14" t="e">
-        <v>#N/A</v>
+      <c r="U14" t="n">
+        <v>96.0</v>
       </c>
       <c r="V14" t="n">
-        <v>96.0</v>
+        <v>96.6</v>
       </c>
       <c r="W14" t="n">
-        <v>96.6</v>
+        <v>90.4</v>
       </c>
       <c r="X14" t="n">
-        <v>90.4</v>
+        <v>8.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.0</v>
+        <v>59.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>59.0</v>
+        <v>23.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.4</v>
+        <v>64.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>64.0</v>
+        <v>16.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>16.7</v>
+        <v>85.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>85.3</v>
+        <v>29313.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>29313.0</v>
-      </c>
-      <c r="AF14" t="n">
         <v>4230.0</v>
+      </c>
+      <c r="AF14" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG14" t="s">
         <v>104</v>

--- a/2022-08-18 Prepare for UTSA/SGLT2.sn.aggr.info.xlsx
+++ b/2022-08-18 Prepare for UTSA/SGLT2.sn.aggr.info.xlsx
@@ -74,6 +74,9 @@
     <t>Q30 Bases in RNA Read</t>
   </si>
   <si>
+    <t>Q30 Bases in Sample Index</t>
+  </si>
+  <si>
     <t>Q30 Bases in UMI</t>
   </si>
   <si>
@@ -107,9 +110,6 @@
     <t>Median UMI Counts per Cell</t>
   </si>
   <si>
-    <t>Q30 Bases in Sample Index</t>
-  </si>
-  <si>
     <t>Agg</t>
   </si>
   <si>
@@ -299,7 +299,7 @@
     <t>76638_V5_combine_force9455</t>
   </si>
   <si>
-    <t>76643_V11_combine_force24013</t>
+    <t>76643_V11_combine_force24368</t>
   </si>
   <si>
     <t>76643_V5_combine</t>
@@ -317,10 +317,10 @@
     <t>76656_V11_combine_force13551</t>
   </si>
   <si>
-    <t>76658_V11_combine_force23181</t>
-  </si>
-  <si>
-    <t>76660_V5_combine_force17531</t>
+    <t>76658_V11_combine_force23868</t>
+  </si>
+  <si>
+    <t>76660_V5_combine_force17696</t>
   </si>
   <si>
     <t>76661_V5_combine_force14743</t>
@@ -347,7 +347,7 @@
     <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_combine_force9455/outs/molecule_info.h5</t>
   </si>
   <si>
-    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76643_V11_combine_force24013/outs/molecule_info.h5</t>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76643_V11_combine_force24368/outs/molecule_info.h5</t>
   </si>
   <si>
     <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76643_V5_combine/outs/molecule_info.h5</t>
@@ -365,10 +365,10 @@
     <t>/media/jianie/SequencingFiles_6/20220801_Counts/76656_V11_combine_force13551/outs/molecule_info.h5</t>
   </si>
   <si>
-    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76658_V11_combine_force23181/outs/molecule_info.h5</t>
-  </si>
-  <si>
-    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76660_V5_combine_force17531/outs/molecule_info.h5</t>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76658_V11_combine_force23868/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76660_V5_combine_force17696/outs/molecule_info.h5</t>
   </si>
   <si>
     <t>/media/jianie/SequencingFiles_6/20220801_Counts/76661_V5_combine_force14743/outs/molecule_info.h5</t>
@@ -398,7 +398,7 @@
     <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_combine_force9455/outs/metrics_summary.csv</t>
   </si>
   <si>
-    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76643_V11_combine_force24013/outs/metrics_summary.csv</t>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76643_V11_combine_force24368/outs/metrics_summary.csv</t>
   </si>
   <si>
     <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76643_V5_combine/outs/metrics_summary.csv</t>
@@ -416,10 +416,10 @@
     <t>/media/jianie/SequencingFiles_6/20220801_Counts/76656_V11_combine_force13551/outs/metrics_summary.csv</t>
   </si>
   <si>
-    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76658_V11_combine_force23181/outs/metrics_summary.csv</t>
-  </si>
-  <si>
-    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76660_V5_combine_force17531/outs/metrics_summary.csv</t>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76658_V11_combine_force23868/outs/metrics_summary.csv</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76660_V5_combine_force17696/outs/metrics_summary.csv</t>
   </si>
   <si>
     <t>/media/jianie/SequencingFiles_6/20220801_Counts/76661_V5_combine_force14743/outs/metrics_summary.csv</t>
@@ -944,41 +944,41 @@
       <c r="T2" t="n">
         <v>93.1</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V2" t="n">
         <v>95.1</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>97.1</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>91.4</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>8.0</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>60.1</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>23.3</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>69.5</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>12.0</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>81.9</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>28312.0</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>4261.0</v>
-      </c>
-      <c r="AF2" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG2" t="s">
         <v>104</v>
@@ -1147,41 +1147,41 @@
       <c r="T3" t="n">
         <v>93.2</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V3" t="n">
         <v>94.6</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>94.8</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>87.3</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>8.6</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>57.9</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>20.8</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>68.4</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>8.4</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>71.8</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>28143.0</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>5188.0</v>
-      </c>
-      <c r="AF3" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG3" t="s">
         <v>104</v>
@@ -1350,41 +1350,41 @@
       <c r="T4" t="n">
         <v>92.4</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V4" t="n">
         <v>94.3</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>94.7</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>87.7</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>8.3</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>60.2</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>19.2</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>68.6</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>8.9</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>82.8</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>29313.0</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>12182.0</v>
-      </c>
-      <c r="AF4" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG4" t="s">
         <v>104</v>
@@ -1553,41 +1553,41 @@
       <c r="T5" t="n">
         <v>93.3</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V5" t="n">
         <v>94.9</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>96.0</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>89.9</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>8.1</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>60.3</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>21.5</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>68.2</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>11.7</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>89.6</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>29020.0</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
         <v>7138.0</v>
-      </c>
-      <c r="AF5" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG5" t="s">
         <v>104</v>
@@ -1727,19 +1727,19 @@
         <v>90</v>
       </c>
       <c r="K6" t="n">
-        <v>293.0</v>
+        <v>299.0</v>
       </c>
       <c r="L6" t="s">
         <v>95</v>
       </c>
       <c r="M6" t="n">
-        <v>24013.0</v>
+        <v>24368.0</v>
       </c>
       <c r="N6" t="n">
-        <v>88270.0</v>
+        <v>86984.0</v>
       </c>
       <c r="O6" t="n">
-        <v>2702.0</v>
+        <v>2656.0</v>
       </c>
       <c r="P6" t="n">
         <v>2.11963207E9</v>
@@ -1756,41 +1756,41 @@
       <c r="T6" t="n">
         <v>94.1</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V6" t="n">
         <v>95.6</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>94.7</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>89.1</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
         <v>53.4</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>27.2</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
         <v>58.2</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>20.9</v>
       </c>
-      <c r="AC6" t="n">
-        <v>87.5</v>
-      </c>
       <c r="AD6" t="n">
-        <v>30216.0</v>
+        <v>87.6</v>
       </c>
       <c r="AE6" t="n">
-        <v>5774.0</v>
-      </c>
-      <c r="AF6" t="e">
-        <v>#N/A</v>
+        <v>30217.0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>5594.0</v>
       </c>
       <c r="AG6" t="s">
         <v>104</v>
@@ -1799,7 +1799,7 @@
         <v>#N/A</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.022083E7</v>
+        <v>2.0220912E7</v>
       </c>
       <c r="AJ6" t="s">
         <v>105</v>
@@ -1959,41 +1959,41 @@
       <c r="T7" t="n">
         <v>91.4</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V7" t="n">
         <v>94.7</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>92.5</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>84.8</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Z7" t="n">
         <v>56.9</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>19.5</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
         <v>66.8</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
         <v>7.6</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AD7" t="n">
         <v>74.0</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AE7" t="n">
         <v>27459.0</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
         <v>3098.0</v>
-      </c>
-      <c r="AF7" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG7" t="s">
         <v>104</v>
@@ -2162,41 +2162,41 @@
       <c r="T8" t="n">
         <v>93.6</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V8" t="n">
         <v>95.8</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>95.5</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>87.2</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>7.9</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Z8" t="n">
         <v>56.1</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA8" t="n">
         <v>23.2</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AB8" t="n">
         <v>55.2</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AC8" t="n">
         <v>22.7</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AD8" t="n">
         <v>75.0</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AE8" t="n">
         <v>30186.0</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AF8" t="n">
         <v>6401.0</v>
-      </c>
-      <c r="AF8" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG8" t="s">
         <v>104</v>
@@ -2365,41 +2365,41 @@
       <c r="T9" t="n">
         <v>93.1</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V9" t="n">
         <v>95.6</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>95.8</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>89.5</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Z9" t="n">
         <v>54.8</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AA9" t="n">
         <v>27.1</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AB9" t="n">
         <v>63.7</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AC9" t="n">
         <v>16.6</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AD9" t="n">
         <v>85.8</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AE9" t="n">
         <v>30263.0</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AF9" t="n">
         <v>4527.0</v>
-      </c>
-      <c r="AF9" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG9" t="s">
         <v>104</v>
@@ -2568,41 +2568,41 @@
       <c r="T10" t="n">
         <v>92.9</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V10" t="n">
         <v>94.3</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>95.8</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>90.5</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
         <v>7.4</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Z10" t="n">
         <v>60.8</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AA10" t="n">
         <v>22.3</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AB10" t="n">
         <v>53.7</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
         <v>27.9</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AD10" t="n">
         <v>82.4</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AE10" t="n">
         <v>30088.0</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AF10" t="n">
         <v>6185.0</v>
-      </c>
-      <c r="AF10" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG10" t="s">
         <v>104</v>
@@ -2771,41 +2771,41 @@
       <c r="T11" t="n">
         <v>93.6</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V11" t="n">
         <v>95.6</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>96.2</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>90.8</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
         <v>9.0</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Z11" t="n">
         <v>60.9</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AA11" t="n">
         <v>20.9</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AB11" t="n">
         <v>55.6</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AC11" t="n">
         <v>24.8</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AD11" t="n">
         <v>73.4</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AE11" t="n">
         <v>30143.0</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AF11" t="n">
         <v>6361.0</v>
-      </c>
-      <c r="AF11" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG11" t="s">
         <v>104</v>
@@ -2945,19 +2945,19 @@
         <v>90</v>
       </c>
       <c r="K12" t="n">
-        <v>288.0</v>
+        <v>301.0</v>
       </c>
       <c r="L12" t="s">
         <v>101</v>
       </c>
       <c r="M12" t="n">
-        <v>23181.0</v>
+        <v>23868.0</v>
       </c>
       <c r="N12" t="n">
-        <v>93916.0</v>
+        <v>91213.0</v>
       </c>
       <c r="O12" t="n">
-        <v>2508.0</v>
+        <v>2461.0</v>
       </c>
       <c r="P12" t="n">
         <v>2.177064134E9</v>
@@ -2974,41 +2974,41 @@
       <c r="T12" t="n">
         <v>94.5</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V12" t="n">
         <v>95.6</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>96.8</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>92.0</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Z12" t="n">
         <v>57.6</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AA12" t="n">
         <v>25.9</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AB12" t="n">
         <v>60.3</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AC12" t="n">
         <v>21.6</v>
       </c>
-      <c r="AC12" t="n">
-        <v>82.1</v>
-      </c>
       <c r="AD12" t="n">
-        <v>30355.0</v>
+        <v>82.4</v>
       </c>
       <c r="AE12" t="n">
-        <v>4873.0</v>
-      </c>
-      <c r="AF12" t="e">
-        <v>#N/A</v>
+        <v>30361.0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>4728.0</v>
       </c>
       <c r="AG12" t="s">
         <v>104</v>
@@ -3017,7 +3017,7 @@
         <v>#N/A</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.022083E7</v>
+        <v>2.0220912E7</v>
       </c>
       <c r="AJ12" t="s">
         <v>105</v>
@@ -3148,19 +3148,19 @@
         <v>90</v>
       </c>
       <c r="K13" t="n">
-        <v>297.0</v>
+        <v>300.0</v>
       </c>
       <c r="L13" t="s">
         <v>102</v>
       </c>
       <c r="M13" t="n">
-        <v>17531.0</v>
+        <v>17696.0</v>
       </c>
       <c r="N13" t="n">
-        <v>93904.0</v>
+        <v>93029.0</v>
       </c>
       <c r="O13" t="n">
-        <v>2524.0</v>
+        <v>2503.0</v>
       </c>
       <c r="P13" t="n">
         <v>1.646232433E9</v>
@@ -3177,41 +3177,41 @@
       <c r="T13" t="n">
         <v>94.3</v>
       </c>
-      <c r="U13" t="n">
-        <v>95.8</v>
+      <c r="U13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="V13" t="n">
         <v>95.8</v>
       </c>
       <c r="W13" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="X13" t="n">
         <v>89.8</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
         <v>8.4</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Z13" t="n">
         <v>58.9</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AA13" t="n">
         <v>22.6</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AB13" t="n">
         <v>57.6</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AC13" t="n">
         <v>22.3</v>
       </c>
-      <c r="AC13" t="n">
-        <v>83.0</v>
-      </c>
       <c r="AD13" t="n">
+        <v>83.1</v>
+      </c>
+      <c r="AE13" t="n">
         <v>29995.0</v>
       </c>
-      <c r="AE13" t="n">
-        <v>5013.0</v>
-      </c>
-      <c r="AF13" t="e">
-        <v>#N/A</v>
+      <c r="AF13" t="n">
+        <v>4942.0</v>
       </c>
       <c r="AG13" t="s">
         <v>104</v>
@@ -3220,7 +3220,7 @@
         <v>#N/A</v>
       </c>
       <c r="AI13" t="n">
-        <v>2.022083E7</v>
+        <v>2.0220912E7</v>
       </c>
       <c r="AJ13" t="s">
         <v>105</v>
@@ -3380,41 +3380,41 @@
       <c r="T14" t="n">
         <v>94.2</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V14" t="n">
         <v>96.0</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>96.6</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>90.4</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
         <v>8.0</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Z14" t="n">
         <v>59.0</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AA14" t="n">
         <v>23.4</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AB14" t="n">
         <v>64.0</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AC14" t="n">
         <v>16.7</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AD14" t="n">
         <v>85.3</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AE14" t="n">
         <v>29313.0</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AF14" t="n">
         <v>4230.0</v>
-      </c>
-      <c r="AF14" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG14" t="s">
         <v>104</v>

--- a/2022-08-18 Prepare for UTSA/SGLT2.sn.aggr.info.xlsx
+++ b/2022-08-18 Prepare for UTSA/SGLT2.sn.aggr.info.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="150">
   <si>
     <t>Sequencing_Date</t>
   </si>
@@ -230,9 +230,21 @@
     <t>L3</t>
   </si>
   <si>
+    <t>76638_V11</t>
+  </si>
+  <si>
     <t>76658_V5</t>
   </si>
   <si>
+    <t>76660_V11</t>
+  </si>
+  <si>
+    <t>76661_V11</t>
+  </si>
+  <si>
+    <t>76662_V11</t>
+  </si>
+  <si>
     <t>76662_V5</t>
   </si>
   <si>
@@ -257,9 +269,21 @@
     <t>20220914_Counts</t>
   </si>
   <si>
+    <t>76638_V11_3_combine_force20626</t>
+  </si>
+  <si>
     <t>76658_V5_3_combine_force22986</t>
   </si>
   <si>
+    <t>76660_V11_2_combine_force12699</t>
+  </si>
+  <si>
+    <t>76661_V11_2_combine_force23379</t>
+  </si>
+  <si>
+    <t>76662_V11_2_combine_force10955</t>
+  </si>
+  <si>
     <t>76662_V5_2_combine_force9832</t>
   </si>
   <si>
@@ -275,9 +299,21 @@
     <t>NovaSeq</t>
   </si>
   <si>
+    <t>/media/jianie/SequencingFiles_6/20220914_Counts/76638_V11_3_combine_force20626/outs/molecule_info.h5</t>
+  </si>
+  <si>
     <t>/media/jianie/SequencingFiles_6/20220914_Counts/76658_V5_3_combine_force22986/outs/molecule_info.h5</t>
   </si>
   <si>
+    <t>/media/jianie/SequencingFiles_6/20220914_Counts/76660_V11_2_combine_force12699/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220914_Counts/76661_V11_2_combine_force23379/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220914_Counts/76662_V11_2_combine_force10955/outs/molecule_info.h5</t>
+  </si>
+  <si>
     <t>/media/jianie/SequencingFiles_6/20220914_Counts/76662_V5_2_combine_force9832/outs/molecule_info.h5</t>
   </si>
   <si>
@@ -296,18 +332,42 @@
     <t>metrics_summary.csv</t>
   </si>
   <si>
+    <t>/media/jianie/SequencingFiles_6/20220914_Counts/76638_V11_3_combine_force20626/outs/metrics_summary.csv</t>
+  </si>
+  <si>
     <t>/media/jianie/SequencingFiles_6/20220914_Counts/76658_V5_3_combine_force22986/outs/metrics_summary.csv</t>
   </si>
   <si>
+    <t>/media/jianie/SequencingFiles_6/20220914_Counts/76660_V11_2_combine_force12699/outs/metrics_summary.csv</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220914_Counts/76661_V11_2_combine_force23379/outs/metrics_summary.csv</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220914_Counts/76662_V11_2_combine_force10955/outs/metrics_summary.csv</t>
+  </si>
+  <si>
     <t>/media/jianie/SequencingFiles_6/20220914_Counts/76662_V5_2_combine_force9832/outs/metrics_summary.csv</t>
   </si>
   <si>
     <t>/media/jianie/SequencingFiles_6/20220914_Counts/76664_V5_2_combine_force13518/outs/metrics_summary.csv</t>
   </si>
   <si>
+    <t>76638_V11_3rd</t>
+  </si>
+  <si>
     <t>76658_V5_3rd</t>
   </si>
   <si>
+    <t>76660_V11_2nd</t>
+  </si>
+  <si>
+    <t>76661_V11_2nd</t>
+  </si>
+  <si>
+    <t>76662_V11_2nd</t>
+  </si>
+  <si>
     <t>76662_V5_2nd</t>
   </si>
   <si>
@@ -320,34 +380,61 @@
     <t>2nd</t>
   </si>
   <si>
+    <t>SI-TT-B4</t>
+  </si>
+  <si>
     <t>SI-TT-B3</t>
   </si>
   <si>
+    <t>SI-TT-B5</t>
+  </si>
+  <si>
+    <t>SI-TT-B9</t>
+  </si>
+  <si>
+    <t>SI-TT-C4</t>
+  </si>
+  <si>
     <t>SI-TT-H7</t>
   </si>
   <si>
-    <t>SI-TT-B4</t>
+    <t>GTAGACGAAA</t>
   </si>
   <si>
     <t>CACGGTGAAT</t>
   </si>
   <si>
+    <t>TCGGCTCTAC</t>
+  </si>
+  <si>
+    <t>TATTGAGGCA</t>
+  </si>
+  <si>
+    <t>TTCTCGATGA</t>
+  </si>
+  <si>
     <t>ACCTCGAGCT</t>
   </si>
   <si>
-    <t>GTAGACGAAA</t>
-  </si>
-  <si>
     <t>index2_workflow_b(i5)</t>
   </si>
   <si>
+    <t>ACCACACTAG</t>
+  </si>
+  <si>
     <t>TGTGACGAAC</t>
   </si>
   <si>
+    <t>AGACCATCGG</t>
+  </si>
+  <si>
+    <t>CACTTACCTG</t>
+  </si>
+  <si>
+    <t>GTGCCCGACA</t>
+  </si>
+  <si>
     <t>ATCGAACACA</t>
-  </si>
-  <si>
-    <t>ACCACACTAG</t>
   </si>
   <si>
     <t>3.7</t>
@@ -654,49 +741,49 @@
         <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I2" t="n">
-        <v>133.0</v>
+        <v>132.0</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L2" t="n">
-        <v>339.0</v>
+        <v>346.0</v>
       </c>
       <c r="M2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N2" t="n">
-        <v>22986.0</v>
+        <v>20626.0</v>
       </c>
       <c r="O2" t="n">
-        <v>93286.0</v>
+        <v>99093.0</v>
       </c>
       <c r="P2" t="n">
-        <v>2535.0</v>
+        <v>2911.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.144274722E9</v>
+        <v>2.043883557E9</v>
       </c>
       <c r="R2" t="n">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="S2" t="n">
-        <v>76.7</v>
+        <v>79.0</v>
       </c>
       <c r="T2" t="n">
         <v>96.3</v>
       </c>
       <c r="U2" t="n">
-        <v>93.9</v>
+        <v>93.8</v>
       </c>
       <c r="V2" t="e">
         <v>#N/A</v>
@@ -705,91 +792,91 @@
         <v>95.6</v>
       </c>
       <c r="X2" t="n">
-        <v>95.7</v>
+        <v>95.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>90.9</v>
+        <v>90.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.4</v>
+        <v>52.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>29.4</v>
+        <v>30.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.8</v>
+        <v>59.0</v>
       </c>
       <c r="AD2" t="n">
-        <v>23.6</v>
+        <v>22.3</v>
       </c>
       <c r="AE2" t="n">
-        <v>84.8</v>
+        <v>75.1</v>
       </c>
       <c r="AF2" t="n">
-        <v>30296.0</v>
+        <v>30222.0</v>
       </c>
       <c r="AG2" t="n">
-        <v>5228.0</v>
+        <v>6292.0</v>
       </c>
       <c r="AH2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="AI2" t="e">
         <v>#N/A</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.0220923E7</v>
+        <v>2.0220927E7</v>
       </c>
       <c r="AK2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AL2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AM2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AN2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="AO2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AP2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AQ2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="AR2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.0210924E7</v>
+        <v>2.0211001E7</v>
       </c>
       <c r="AT2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AU2" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AV2" t="e">
         <v>#N/A</v>
       </c>
       <c r="AW2" t="n">
-        <v>19432.0</v>
+        <v>18000.0</v>
       </c>
       <c r="AX2" t="n">
-        <v>42000.0</v>
+        <v>51000.0</v>
       </c>
       <c r="AY2" t="n">
-        <v>8.16144E8</v>
+        <v>9.18E8</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.34</v>
+        <v>0.383</v>
       </c>
       <c r="BA2" t="n">
         <v>2.397579E9</v>
@@ -798,16 +885,16 @@
         <v>#N/A</v>
       </c>
       <c r="BC2" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="BD2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="BE2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="BF2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="BG2" t="n">
         <v>1.13</v>
@@ -816,19 +903,19 @@
         <v>465.0</v>
       </c>
       <c r="BI2" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="BJ2" t="n">
         <v>100.0</v>
       </c>
       <c r="BK2" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="BL2" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="BM2" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="BN2" t="e">
         <v>#N/A</v>
@@ -837,7 +924,7 @@
         <v>#N/A</v>
       </c>
       <c r="BP2" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="BQ2" t="n">
         <v>1.0</v>
@@ -848,10 +935,10 @@
         <v>2.0220914E7</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" t="n">
-        <v>2.998436717E9</v>
+        <v>3.016963964E9</v>
       </c>
       <c r="D3" t="e">
         <v>#N/A</v>
@@ -863,88 +950,88 @@
         <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I3" t="n">
-        <v>138.0</v>
+        <v>133.0</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L3" t="n">
-        <v>343.0</v>
+        <v>339.0</v>
       </c>
       <c r="M3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N3" t="n">
-        <v>9832.0</v>
+        <v>22986.0</v>
       </c>
       <c r="O3" t="n">
-        <v>95511.0</v>
+        <v>93286.0</v>
       </c>
       <c r="P3" t="n">
-        <v>2531.0</v>
+        <v>2535.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.39067735E8</v>
+        <v>2.144274722E9</v>
       </c>
       <c r="R3" t="n">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="S3" t="n">
-        <v>75.3</v>
+        <v>76.7</v>
       </c>
       <c r="T3" t="n">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="U3" t="n">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="V3" t="e">
         <v>#N/A</v>
       </c>
       <c r="W3" t="n">
-        <v>95.8</v>
+        <v>95.6</v>
       </c>
       <c r="X3" t="n">
-        <v>96.4</v>
+        <v>95.7</v>
       </c>
       <c r="Y3" t="n">
         <v>90.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.2</v>
+        <v>9.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.4</v>
+        <v>52.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>25.3</v>
+        <v>29.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.6</v>
+        <v>56.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AE3" t="n">
-        <v>81.8</v>
+        <v>84.8</v>
       </c>
       <c r="AF3" t="n">
-        <v>29592.0</v>
+        <v>30296.0</v>
       </c>
       <c r="AG3" t="n">
-        <v>5347.0</v>
+        <v>5228.0</v>
       </c>
       <c r="AH3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="e">
         <v>#N/A</v>
@@ -953,91 +1040,91 @@
         <v>2.0220923E7</v>
       </c>
       <c r="AK3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AL3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AM3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="AN3" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="AO3" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AP3" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AQ3" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="AR3" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.0220216E7</v>
+        <v>2.0210924E7</v>
       </c>
       <c r="AT3" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="AU3" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AV3" t="e">
         <v>#N/A</v>
       </c>
       <c r="AW3" t="n">
-        <v>9266.0</v>
+        <v>19432.0</v>
       </c>
       <c r="AX3" t="n">
-        <v>34000.0</v>
+        <v>42000.0</v>
       </c>
       <c r="AY3" t="n">
-        <v>3.15044E8</v>
+        <v>8.16144E8</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.113</v>
+        <v>0.34</v>
       </c>
       <c r="BA3" t="n">
-        <v>2.790013E9</v>
+        <v>2.397579E9</v>
       </c>
       <c r="BB3" t="e">
         <v>#N/A</v>
       </c>
       <c r="BC3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="BD3" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="BE3" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="BF3" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="BG3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="BH3" t="n">
-        <v>483.0</v>
+        <v>465.0</v>
       </c>
       <c r="BI3" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="BJ3" t="n">
-        <v>150.0</v>
+        <v>100.0</v>
       </c>
       <c r="BK3" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="BL3" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="BM3" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="BN3" t="e">
         <v>#N/A</v>
@@ -1046,7 +1133,7 @@
         <v>#N/A</v>
       </c>
       <c r="BP3" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="BQ3" t="n">
         <v>2.0</v>
@@ -1057,10 +1144,10 @@
         <v>2.0220914E7</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" t="n">
-        <v>2.97731327E9</v>
+        <v>2.998436717E9</v>
       </c>
       <c r="D4" t="e">
         <v>#N/A</v>
@@ -1072,181 +1159,181 @@
         <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0</v>
+        <v>139.0</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L4" t="n">
-        <v>342.0</v>
+        <v>348.0</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N4" t="n">
-        <v>13518.0</v>
+        <v>12699.0</v>
       </c>
       <c r="O4" t="n">
-        <v>86229.0</v>
+        <v>99954.0</v>
       </c>
       <c r="P4" t="n">
-        <v>3160.0</v>
+        <v>2653.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.165643785E9</v>
+        <v>1.269309566E9</v>
       </c>
       <c r="R4" t="n">
-        <v>98.1</v>
+        <v>97.8</v>
       </c>
       <c r="S4" t="n">
-        <v>69.2</v>
+        <v>80.3</v>
       </c>
       <c r="T4" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="V4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W4" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="X4" t="n">
         <v>96.1</v>
       </c>
-      <c r="U4" t="n">
-        <v>93.6</v>
-      </c>
-      <c r="V4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W4" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="X4" t="n">
-        <v>96.6</v>
-      </c>
       <c r="Y4" t="n">
-        <v>91.1</v>
+        <v>90.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.0</v>
+        <v>8.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.1</v>
+        <v>61.6</v>
       </c>
       <c r="AB4" t="n">
-        <v>23.1</v>
+        <v>20.1</v>
       </c>
       <c r="AC4" t="n">
-        <v>63.1</v>
+        <v>58.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>18.3</v>
+        <v>21.3</v>
       </c>
       <c r="AE4" t="n">
-        <v>82.9</v>
+        <v>75.1</v>
       </c>
       <c r="AF4" t="n">
-        <v>29828.0</v>
+        <v>29749.0</v>
       </c>
       <c r="AG4" t="n">
-        <v>7794.0</v>
+        <v>5698.0</v>
       </c>
       <c r="AH4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="AI4" t="e">
         <v>#N/A</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2.0220923E7</v>
+        <v>2.0220927E7</v>
       </c>
       <c r="AK4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AL4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AM4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="AN4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="AO4" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AP4" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AQ4" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="AR4" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.0220405E7</v>
+        <v>2.0220503E7</v>
       </c>
       <c r="AT4" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AU4" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="AV4" t="e">
         <v>#N/A</v>
       </c>
       <c r="AW4" t="n">
-        <v>11784.0</v>
+        <v>12905.0</v>
       </c>
       <c r="AX4" t="n">
-        <v>43000.0</v>
+        <v>61000.0</v>
       </c>
       <c r="AY4" t="n">
-        <v>5.06712E8</v>
+        <v>7.87205E8</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.202</v>
+        <v>0.282</v>
       </c>
       <c r="BA4" t="n">
-        <v>2.508142E9</v>
+        <v>2.790013E9</v>
       </c>
       <c r="BB4" t="e">
         <v>#N/A</v>
       </c>
       <c r="BC4" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="BD4" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="BE4" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="BF4" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="BG4" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="BH4" t="n">
-        <v>544.0</v>
+        <v>483.0</v>
       </c>
       <c r="BI4" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="BJ4" t="n">
-        <v>100.0</v>
+        <v>150.0</v>
       </c>
       <c r="BK4" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="BL4" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="BM4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="BN4" t="e">
         <v>#N/A</v>
@@ -1255,10 +1342,846 @@
         <v>#N/A</v>
       </c>
       <c r="BP4" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="BQ4" t="n">
         <v>3.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2.0220914E7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.998436717E9</v>
+      </c>
+      <c r="D5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" t="n">
+        <v>23379.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>103889.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3028.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.428824781E9</v>
+      </c>
+      <c r="R5" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="S5" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="V5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W5" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="X5" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>88.1</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>68.4</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>30190.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>6005.0</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>2.0220927E7</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>2.0220517E7</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>18148.0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>93000.0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>1.687764E9</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>2.790013E9</v>
+      </c>
+      <c r="BB5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>134</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>483.0</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>144</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>145</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BO5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2.0220914E7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.97731327E9</v>
+      </c>
+      <c r="D6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="n">
+        <v>347.0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10955.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>121731.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2619.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.333565629E9</v>
+      </c>
+      <c r="R6" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="T6" t="n">
+        <v>96.1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="V6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W6" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>86.9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>29872.0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5200.0</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>2.0220927E7</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>2.0220607E7</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>9565.0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>62000.0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>5.9303E8</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>2.508142E9</v>
+      </c>
+      <c r="BB6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>134</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>544.0</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>143</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>145</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BO6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2.0220914E7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.998436717E9</v>
+      </c>
+      <c r="D7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9832.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>95511.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2531.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>9.39067735E8</v>
+      </c>
+      <c r="R7" t="n">
+        <v>97.6</v>
+      </c>
+      <c r="S7" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="U7" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="V7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W7" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="X7" t="n">
+        <v>96.4</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>90.9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>29592.0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>5347.0</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>2.0220923E7</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>2.0220216E7</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>9266.0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>34000.0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>3.15044E8</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>2.790013E9</v>
+      </c>
+      <c r="BB7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>133</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>134</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>140</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>483.0</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>144</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BO7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2.0220914E7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.97731327E9</v>
+      </c>
+      <c r="D8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" t="n">
+        <v>342.0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13518.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>86229.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3160.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.165643785E9</v>
+      </c>
+      <c r="R8" t="n">
+        <v>98.1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="T8" t="n">
+        <v>96.1</v>
+      </c>
+      <c r="U8" t="n">
+        <v>93.6</v>
+      </c>
+      <c r="V8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W8" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="X8" t="n">
+        <v>96.6</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>82.9</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>29828.0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>7794.0</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>2.0220923E7</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2.0220405E7</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>11784.0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>43000.0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>5.06712E8</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>2.508142E9</v>
+      </c>
+      <c r="BB8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>134</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>135</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>544.0</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>143</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>144</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>145</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BO8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>149</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>

--- a/2022-08-18 Prepare for UTSA/SGLT2.sn.aggr.info.xlsx
+++ b/2022-08-18 Prepare for UTSA/SGLT2.sn.aggr.info.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="268">
   <si>
     <t>Sequencing_Date</t>
   </si>
@@ -29,16 +29,103 @@
     <t>Diff.PerLane</t>
   </si>
   <si>
+    <t>Counts_List</t>
+  </si>
+  <si>
+    <t>sample_id_ori</t>
+  </si>
+  <si>
+    <t>Estimated Number of Cells</t>
+  </si>
+  <si>
+    <t>Mean Reads per Cell</t>
+  </si>
+  <si>
+    <t>Median Genes per Cell</t>
+  </si>
+  <si>
+    <t>Number of Reads</t>
+  </si>
+  <si>
+    <t>Valid Barcodes</t>
+  </si>
+  <si>
+    <t>Sequencing Saturation</t>
+  </si>
+  <si>
+    <t>Q30 Bases in Barcode</t>
+  </si>
+  <si>
+    <t>Q30 Bases in RNA Read</t>
+  </si>
+  <si>
+    <t>Q30 Bases in Sample Index</t>
+  </si>
+  <si>
+    <t>Q30 Bases in UMI</t>
+  </si>
+  <si>
+    <t>Reads Mapped to Genome</t>
+  </si>
+  <si>
+    <t>Reads Mapped Confidently to Genome</t>
+  </si>
+  <si>
+    <t>Reads Mapped Confidently to Intergenic Regions</t>
+  </si>
+  <si>
+    <t>Reads Mapped Confidently to Intronic Regions</t>
+  </si>
+  <si>
+    <t>Reads Mapped Confidently to Exonic Regions</t>
+  </si>
+  <si>
+    <t>Reads Mapped Confidently to Transcriptome</t>
+  </si>
+  <si>
+    <t>Reads Mapped Antisense to Gene</t>
+  </si>
+  <si>
+    <t>Fraction Reads in Cells</t>
+  </si>
+  <si>
+    <t>Total Genes Detected</t>
+  </si>
+  <si>
+    <t>Median UMI Counts per Cell</t>
+  </si>
+  <si>
+    <t>SQ_List</t>
+  </si>
+  <si>
+    <t>Library_ID</t>
+  </si>
+  <si>
     <t>sample_id</t>
   </si>
   <si>
-    <t>Library_ID</t>
-  </si>
-  <si>
     <t>Project</t>
   </si>
   <si>
-    <t>SQ_List</t>
+    <t>Agg</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>AnalysisDate</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Sequencing_Type</t>
+  </si>
+  <si>
+    <t>molecule_h5</t>
+  </si>
+  <si>
+    <t>root</t>
   </si>
   <si>
     <t>Disk</t>
@@ -47,93 +134,6 @@
     <t>CountsFolder</t>
   </si>
   <si>
-    <t>Counts_List</t>
-  </si>
-  <si>
-    <t>sample_id_ori</t>
-  </si>
-  <si>
-    <t>Estimated Number of Cells</t>
-  </si>
-  <si>
-    <t>Mean Reads per Cell</t>
-  </si>
-  <si>
-    <t>Median Genes per Cell</t>
-  </si>
-  <si>
-    <t>Number of Reads</t>
-  </si>
-  <si>
-    <t>Valid Barcodes</t>
-  </si>
-  <si>
-    <t>Sequencing Saturation</t>
-  </si>
-  <si>
-    <t>Q30 Bases in Barcode</t>
-  </si>
-  <si>
-    <t>Q30 Bases in RNA Read</t>
-  </si>
-  <si>
-    <t>Q30 Bases in Sample Index</t>
-  </si>
-  <si>
-    <t>Q30 Bases in UMI</t>
-  </si>
-  <si>
-    <t>Reads Mapped to Genome</t>
-  </si>
-  <si>
-    <t>Reads Mapped Confidently to Genome</t>
-  </si>
-  <si>
-    <t>Reads Mapped Confidently to Intergenic Regions</t>
-  </si>
-  <si>
-    <t>Reads Mapped Confidently to Intronic Regions</t>
-  </si>
-  <si>
-    <t>Reads Mapped Confidently to Exonic Regions</t>
-  </si>
-  <si>
-    <t>Reads Mapped Confidently to Transcriptome</t>
-  </si>
-  <si>
-    <t>Reads Mapped Antisense to Gene</t>
-  </si>
-  <si>
-    <t>Fraction Reads in Cells</t>
-  </si>
-  <si>
-    <t>Total Genes Detected</t>
-  </si>
-  <si>
-    <t>Median UMI Counts per Cell</t>
-  </si>
-  <si>
-    <t>Agg</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>AnalysisDate</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Sequencing_Type</t>
-  </si>
-  <si>
-    <t>molecule_h5</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
     <t>Final_Folder</t>
   </si>
   <si>
@@ -173,7 +173,7 @@
     <t>Sum</t>
   </si>
   <si>
-    <t>...15</t>
+    <t>...16</t>
   </si>
   <si>
     <t>I7_Index ID</t>
@@ -221,27 +221,153 @@
     <t>Agg.List</t>
   </si>
   <si>
+    <t>L3</t>
+  </si>
+  <si>
     <t>L2</t>
   </si>
   <si>
     <t>L4</t>
   </si>
   <si>
-    <t>L3</t>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>76615_V5_force10739</t>
+  </si>
+  <si>
+    <t>76632_V11_combine_force6012</t>
+  </si>
+  <si>
+    <t>76632_V5_combine_force9721</t>
+  </si>
+  <si>
+    <t>76638_V11_3_combine_force20626</t>
+  </si>
+  <si>
+    <t>76638_V5_combine_force9455</t>
+  </si>
+  <si>
+    <t>76643_V11_combine_force24368</t>
+  </si>
+  <si>
+    <t>76643_V5_combine</t>
+  </si>
+  <si>
+    <t>76647_V11_combine_force14711</t>
+  </si>
+  <si>
+    <t>76649_V11_combine_force23571</t>
+  </si>
+  <si>
+    <t>76649_V5_combine_force14435</t>
+  </si>
+  <si>
+    <t>76656_V11_combine_force13551</t>
+  </si>
+  <si>
+    <t>76658_V11_combine_force23868</t>
+  </si>
+  <si>
+    <t>76658_V5_3_combine_force22986</t>
+  </si>
+  <si>
+    <t>76660_V11_2_combine_force12699</t>
+  </si>
+  <si>
+    <t>76660_V5_combine_force17696</t>
+  </si>
+  <si>
+    <t>76661_V11_2_combine_force23379</t>
+  </si>
+  <si>
+    <t>76661_V5_combine_force14743</t>
+  </si>
+  <si>
+    <t>76662_V11_2_combine_force10955</t>
+  </si>
+  <si>
+    <t>76662_V5_2_combine_force9832</t>
+  </si>
+  <si>
+    <t>76664_V5_2_combine_force13518</t>
+  </si>
+  <si>
+    <t>P0111212</t>
+  </si>
+  <si>
+    <t>P101521</t>
+  </si>
+  <si>
+    <t>P20220013</t>
+  </si>
+  <si>
+    <t>76638-v5_mus-fat_musi</t>
+  </si>
+  <si>
+    <t>P20220009</t>
+  </si>
+  <si>
+    <t>P20220008</t>
+  </si>
+  <si>
+    <t>P20220015</t>
+  </si>
+  <si>
+    <t>P20220014</t>
+  </si>
+  <si>
+    <t>76615_V5</t>
+  </si>
+  <si>
+    <t>76632_V11</t>
+  </si>
+  <si>
+    <t>76632_V5</t>
   </si>
   <si>
     <t>76638_V11</t>
   </si>
   <si>
+    <t>76638_V5</t>
+  </si>
+  <si>
+    <t>76643_V11</t>
+  </si>
+  <si>
+    <t>76643_V5</t>
+  </si>
+  <si>
+    <t>76647_V11</t>
+  </si>
+  <si>
+    <t>76649_V11</t>
+  </si>
+  <si>
+    <t>76649_V5</t>
+  </si>
+  <si>
+    <t>76656_V11</t>
+  </si>
+  <si>
+    <t>76658_V11</t>
+  </si>
+  <si>
     <t>76658_V5</t>
   </si>
   <si>
     <t>76660_V11</t>
   </si>
   <si>
+    <t>76660_V5</t>
+  </si>
+  <si>
     <t>76661_V11</t>
   </si>
   <si>
+    <t>76661_V5</t>
+  </si>
+  <si>
     <t>76662_V11</t>
   </si>
   <si>
@@ -251,76 +377,100 @@
     <t>76664_V5</t>
   </si>
   <si>
-    <t>P20220013</t>
-  </si>
-  <si>
-    <t>P20220015</t>
-  </si>
-  <si>
-    <t>P20220014</t>
-  </si>
-  <si>
     <t>SGLT2</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Jia</t>
+  </si>
+  <si>
+    <t>NovaSeq</t>
+  </si>
+  <si>
+    <t>/media/jianie/Seagate_SequencingFiles_1/20210126_UTA_NovaSeq_L3_Counts/76615_V5_force10739/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V11_combine_force6012/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5_combine_force9721/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220914_Counts/76638_V11_3_combine_force20626/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_combine_force9455/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76643_V11_combine_force24368/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76643_V5_combine/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76647_V11_combine_force14711/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76649_V11_combine_force23571/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_combine_force14435/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76656_V11_combine_force13551/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76658_V11_combine_force23868/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220914_Counts/76658_V5_3_combine_force22986/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220914_Counts/76660_V11_2_combine_force12699/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76660_V5_combine_force17696/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220914_Counts/76661_V11_2_combine_force23379/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76661_V5_combine_force14743/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220914_Counts/76662_V11_2_combine_force10955/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220914_Counts/76662_V5_2_combine_force9832/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220914_Counts/76664_V5_2_combine_force13518/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/</t>
+  </si>
+  <si>
+    <t>Seagate_SequencingFiles_1</t>
+  </si>
+  <si>
+    <t>SequencingFiles_3</t>
+  </si>
+  <si>
     <t>SequencingFiles_6</t>
   </si>
   <si>
+    <t>20210126_UTA_NovaSeq_L3_Counts</t>
+  </si>
+  <si>
+    <t>20211105_L3_L4_Counts</t>
+  </si>
+  <si>
     <t>20220914_Counts</t>
   </si>
   <si>
-    <t>76638_V11_3_combine_force20626</t>
-  </si>
-  <si>
-    <t>76658_V5_3_combine_force22986</t>
-  </si>
-  <si>
-    <t>76660_V11_2_combine_force12699</t>
-  </si>
-  <si>
-    <t>76661_V11_2_combine_force23379</t>
-  </si>
-  <si>
-    <t>76662_V11_2_combine_force10955</t>
-  </si>
-  <si>
-    <t>76662_V5_2_combine_force9832</t>
-  </si>
-  <si>
-    <t>76664_V5_2_combine_force13518</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Jia</t>
-  </si>
-  <si>
-    <t>NovaSeq</t>
-  </si>
-  <si>
-    <t>/media/jianie/SequencingFiles_6/20220914_Counts/76638_V11_3_combine_force20626/outs/molecule_info.h5</t>
-  </si>
-  <si>
-    <t>/media/jianie/SequencingFiles_6/20220914_Counts/76658_V5_3_combine_force22986/outs/molecule_info.h5</t>
-  </si>
-  <si>
-    <t>/media/jianie/SequencingFiles_6/20220914_Counts/76660_V11_2_combine_force12699/outs/molecule_info.h5</t>
-  </si>
-  <si>
-    <t>/media/jianie/SequencingFiles_6/20220914_Counts/76661_V11_2_combine_force23379/outs/molecule_info.h5</t>
-  </si>
-  <si>
-    <t>/media/jianie/SequencingFiles_6/20220914_Counts/76662_V11_2_combine_force10955/outs/molecule_info.h5</t>
-  </si>
-  <si>
-    <t>/media/jianie/SequencingFiles_6/20220914_Counts/76662_V5_2_combine_force9832/outs/molecule_info.h5</t>
-  </si>
-  <si>
-    <t>/media/jianie/SequencingFiles_6/20220914_Counts/76664_V5_2_combine_force13518/outs/molecule_info.h5</t>
-  </si>
-  <si>
-    <t>/media/jianie/</t>
+    <t>20220801_Counts</t>
   </si>
   <si>
     <t>/outs/</t>
@@ -332,18 +482,57 @@
     <t>metrics_summary.csv</t>
   </si>
   <si>
+    <t>/media/jianie/Seagate_SequencingFiles_1/20210126_UTA_NovaSeq_L3_Counts/76615_V5_force10739/outs/metrics_summary.csv</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V11_combine_force6012/outs/metrics_summary.csv</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76632_V5_combine_force9721/outs/metrics_summary.csv</t>
+  </si>
+  <si>
     <t>/media/jianie/SequencingFiles_6/20220914_Counts/76638_V11_3_combine_force20626/outs/metrics_summary.csv</t>
   </si>
   <si>
+    <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_combine_force9455/outs/metrics_summary.csv</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76643_V11_combine_force24368/outs/metrics_summary.csv</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76643_V5_combine/outs/metrics_summary.csv</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76647_V11_combine_force14711/outs/metrics_summary.csv</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76649_V11_combine_force23571/outs/metrics_summary.csv</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76649_V5_combine_force14435/outs/metrics_summary.csv</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76656_V11_combine_force13551/outs/metrics_summary.csv</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76658_V11_combine_force23868/outs/metrics_summary.csv</t>
+  </si>
+  <si>
     <t>/media/jianie/SequencingFiles_6/20220914_Counts/76658_V5_3_combine_force22986/outs/metrics_summary.csv</t>
   </si>
   <si>
     <t>/media/jianie/SequencingFiles_6/20220914_Counts/76660_V11_2_combine_force12699/outs/metrics_summary.csv</t>
   </si>
   <si>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76660_V5_combine_force17696/outs/metrics_summary.csv</t>
+  </si>
+  <si>
     <t>/media/jianie/SequencingFiles_6/20220914_Counts/76661_V11_2_combine_force23379/outs/metrics_summary.csv</t>
   </si>
   <si>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76661_V5_combine_force14743/outs/metrics_summary.csv</t>
+  </si>
+  <si>
     <t>/media/jianie/SequencingFiles_6/20220914_Counts/76662_V11_2_combine_force10955/outs/metrics_summary.csv</t>
   </si>
   <si>
@@ -353,9 +542,27 @@
     <t>/media/jianie/SequencingFiles_6/20220914_Counts/76664_V5_2_combine_force13518/outs/metrics_summary.csv</t>
   </si>
   <si>
+    <t>76615-V5</t>
+  </si>
+  <si>
+    <t>766-32</t>
+  </si>
+  <si>
+    <t>76632-V5</t>
+  </si>
+  <si>
     <t>76638_V11_3rd</t>
   </si>
   <si>
+    <t>766-38 Fat</t>
+  </si>
+  <si>
+    <t>766-43</t>
+  </si>
+  <si>
+    <t>766-49 V5</t>
+  </si>
+  <si>
     <t>76658_V5_3rd</t>
   </si>
   <si>
@@ -380,66 +587,183 @@
     <t>2nd</t>
   </si>
   <si>
+    <t>10X31031</t>
+  </si>
+  <si>
+    <t>10x31161</t>
+  </si>
+  <si>
+    <t>10x31151</t>
+  </si>
+  <si>
+    <t>10x31162</t>
+  </si>
+  <si>
+    <t>10x3119</t>
+  </si>
+  <si>
+    <t>SI-TT-B3</t>
+  </si>
+  <si>
+    <t>SI-TT-D6</t>
+  </si>
+  <si>
+    <t>SI-GA-E7</t>
+  </si>
+  <si>
     <t>SI-TT-B4</t>
   </si>
   <si>
-    <t>SI-TT-B3</t>
+    <t>SI-TT-D7</t>
   </si>
   <si>
     <t>SI-TT-B5</t>
   </si>
   <si>
+    <t>SI-TT-E6</t>
+  </si>
+  <si>
+    <t>SI-TT-D5</t>
+  </si>
+  <si>
+    <t>SI-TT-F7</t>
+  </si>
+  <si>
+    <t>SI-TT-H2</t>
+  </si>
+  <si>
+    <t>SI-TT-H4</t>
+  </si>
+  <si>
+    <t>SI-TT-H5</t>
+  </si>
+  <si>
     <t>SI-TT-B9</t>
   </si>
   <si>
+    <t>SI-TT-H6</t>
+  </si>
+  <si>
     <t>SI-TT-C4</t>
   </si>
   <si>
     <t>SI-TT-H7</t>
   </si>
   <si>
+    <t>CACGGTGAAT</t>
+  </si>
+  <si>
+    <t>CCCAGCTTCT</t>
+  </si>
+  <si>
+    <t>CACGCCTT, GTATATAG, TCTCGGGC, AGGATACA</t>
+  </si>
+  <si>
     <t>GTAGACGAAA</t>
   </si>
   <si>
-    <t>CACGGTGAAT</t>
+    <t>CCTGTCAGGG</t>
   </si>
   <si>
     <t>TCGGCTCTAC</t>
   </si>
   <si>
+    <t>TTGAGAGTCA</t>
+  </si>
+  <si>
+    <t>TGGTTCGGGT</t>
+  </si>
+  <si>
+    <t>AATGTATCCA</t>
+  </si>
+  <si>
+    <t>TAGCATAGTG</t>
+  </si>
+  <si>
+    <t>AGTTTCCTGG</t>
+  </si>
+  <si>
+    <t>AGCAAGAAGC</t>
+  </si>
+  <si>
     <t>TATTGAGGCA</t>
   </si>
   <si>
+    <t>CCTATCCTCG</t>
+  </si>
+  <si>
     <t>TTCTCGATGA</t>
   </si>
   <si>
     <t>ACCTCGAGCT</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>index2_workflow_b(i5)</t>
   </si>
   <si>
+    <t>GTTCGTCACA</t>
+  </si>
+  <si>
+    <t>GTTTGGTGTC</t>
+  </si>
+  <si>
     <t>ACCACACTAG</t>
   </si>
   <si>
+    <t>GTTACGGGCT</t>
+  </si>
+  <si>
+    <t>AGACCATCGG</t>
+  </si>
+  <si>
+    <t>CTACCAGGTT</t>
+  </si>
+  <si>
+    <t>CTCCTGCCAC</t>
+  </si>
+  <si>
+    <t>TAAGCTCATT</t>
+  </si>
+  <si>
+    <t>GACAGAGCCG</t>
+  </si>
+  <si>
+    <t>CTGTGTGGCA</t>
+  </si>
+  <si>
     <t>TGTGACGAAC</t>
   </si>
   <si>
-    <t>AGACCATCGG</t>
+    <t>AGAAACACAA</t>
   </si>
   <si>
     <t>CACTTACCTG</t>
   </si>
   <si>
+    <t>GTTAGTATTC</t>
+  </si>
+  <si>
     <t>GTGCCCGACA</t>
   </si>
   <si>
     <t>ATCGAACACA</t>
   </si>
   <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>3.7</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>3.6</t>
   </si>
   <si>
@@ -455,7 +779,37 @@
     <t>UTA</t>
   </si>
   <si>
+    <t>SequencingFiles_2</t>
+  </si>
+  <si>
+    <t>SequencingFiles_5</t>
+  </si>
+  <si>
+    <t>20211105_UTA_L3_L4_cbcl</t>
+  </si>
+  <si>
+    <t>20220801_L1_L2_cbcl</t>
+  </si>
+  <si>
+    <t>20210126_UTA_NovaSeq_L3_fastq</t>
+  </si>
+  <si>
+    <t>20211105_L3_fastq_dual</t>
+  </si>
+  <si>
+    <t>20211105_L3_fastq_single</t>
+  </si>
+  <si>
     <t>20220914_L13_fastq</t>
+  </si>
+  <si>
+    <t>20211105_L4_fastq_dual</t>
+  </si>
+  <si>
+    <t>20220801_L9_fastq</t>
+  </si>
+  <si>
+    <t>20220801_L8_fastq</t>
   </si>
   <si>
     <t>20220914_L15_fastq</t>
@@ -723,13 +1077,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.0220914E7</v>
+        <v>2.0210126E7</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
       </c>
       <c r="C2" t="n">
-        <v>3.016963964E9</v>
+        <v>3.028254122E9</v>
       </c>
       <c r="D2" t="e">
         <v>#N/A</v>
@@ -737,185 +1091,185 @@
       <c r="E2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F2" t="s">
-        <v>72</v>
+      <c r="F2" t="n">
+        <v>281.0</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" t="s">
-        <v>82</v>
+        <v>73</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10739.0</v>
       </c>
       <c r="I2" t="n">
-        <v>132.0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" t="s">
-        <v>84</v>
+        <v>77967.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2116.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8.37283164E8</v>
       </c>
       <c r="L2" t="n">
-        <v>346.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>85</v>
+        <v>97.6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>81.0</v>
       </c>
       <c r="N2" t="n">
-        <v>20626.0</v>
+        <v>95.5</v>
       </c>
       <c r="O2" t="n">
-        <v>99093.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2911.0</v>
+        <v>93.1</v>
+      </c>
+      <c r="P2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.043883557E9</v>
+        <v>95.1</v>
       </c>
       <c r="R2" t="n">
-        <v>97.6</v>
+        <v>97.1</v>
       </c>
       <c r="S2" t="n">
-        <v>79.0</v>
+        <v>91.4</v>
       </c>
       <c r="T2" t="n">
-        <v>96.3</v>
+        <v>8.0</v>
       </c>
       <c r="U2" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="V2" t="e">
-        <v>#N/A</v>
+        <v>60.1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>23.3</v>
       </c>
       <c r="W2" t="n">
-        <v>95.6</v>
+        <v>69.5</v>
       </c>
       <c r="X2" t="n">
-        <v>95.6</v>
+        <v>12.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>90.8</v>
+        <v>81.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.0</v>
+        <v>28312.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.1</v>
+        <v>4261.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>75.1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>30222.0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>6292.0</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>2.0220927E7</v>
+        <v>35.0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>2.0220822E7</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>124</v>
       </c>
       <c r="AK2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="AL2" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="AM2" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="AN2" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="AO2" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="AP2" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="AQ2" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="AR2" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.0211001E7</v>
+        <v>2.0200909E7</v>
       </c>
       <c r="AT2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AV2" t="e">
-        <v>#N/A</v>
+        <v>176</v>
+      </c>
+      <c r="AU2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>191</v>
       </c>
       <c r="AW2" t="n">
-        <v>18000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="AX2" t="n">
-        <v>51000.0</v>
+        <v>75000.0</v>
       </c>
       <c r="AY2" t="n">
-        <v>9.18E8</v>
+        <v>7.5E8</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.383</v>
+        <v>0.25</v>
       </c>
       <c r="BA2" t="n">
-        <v>2.397579E9</v>
+        <v>3.0E9</v>
       </c>
       <c r="BB2" t="e">
         <v>#N/A</v>
       </c>
       <c r="BC2" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="BD2" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="BE2" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="BF2" t="s">
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.13</v>
+        <v>30.3</v>
       </c>
       <c r="BH2" t="n">
-        <v>465.0</v>
+        <v>415.0</v>
       </c>
       <c r="BI2" t="s">
-        <v>141</v>
+        <v>246</v>
       </c>
       <c r="BJ2" t="n">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
       <c r="BK2" t="s">
-        <v>144</v>
+        <v>252</v>
       </c>
       <c r="BL2" t="s">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="BM2" t="s">
-        <v>146</v>
+        <v>254</v>
       </c>
       <c r="BN2" t="e">
         <v>#N/A</v>
@@ -924,7 +1278,7 @@
         <v>#N/A</v>
       </c>
       <c r="BP2" t="s">
-        <v>147</v>
+        <v>259</v>
       </c>
       <c r="BQ2" t="n">
         <v>1.0</v>
@@ -932,13 +1286,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.0220914E7</v>
+        <v>2.0211105E7</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
       </c>
       <c r="C3" t="n">
-        <v>3.016963964E9</v>
+        <v>2.590729371E9</v>
       </c>
       <c r="D3" t="e">
         <v>#N/A</v>
@@ -946,194 +1300,194 @@
       <c r="E3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F3" t="s">
-        <v>73</v>
+      <c r="F3" t="n">
+        <v>282.0</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" t="s">
-        <v>82</v>
+        <v>74</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6012.0</v>
       </c>
       <c r="I3" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K3" t="s">
-        <v>84</v>
+        <v>92408.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2527.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.55559035E8</v>
       </c>
       <c r="L3" t="n">
-        <v>339.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>86</v>
+        <v>97.8</v>
+      </c>
+      <c r="M3" t="n">
+        <v>68.7</v>
       </c>
       <c r="N3" t="n">
-        <v>22986.0</v>
+        <v>95.2</v>
       </c>
       <c r="O3" t="n">
-        <v>93286.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2535.0</v>
+        <v>93.2</v>
+      </c>
+      <c r="P3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.144274722E9</v>
+        <v>94.6</v>
       </c>
       <c r="R3" t="n">
-        <v>97.5</v>
+        <v>94.8</v>
       </c>
       <c r="S3" t="n">
-        <v>76.7</v>
+        <v>87.3</v>
       </c>
       <c r="T3" t="n">
-        <v>96.3</v>
+        <v>8.6</v>
       </c>
       <c r="U3" t="n">
-        <v>93.9</v>
-      </c>
-      <c r="V3" t="e">
-        <v>#N/A</v>
+        <v>57.9</v>
+      </c>
+      <c r="V3" t="n">
+        <v>20.8</v>
       </c>
       <c r="W3" t="n">
-        <v>95.6</v>
+        <v>68.4</v>
       </c>
       <c r="X3" t="n">
-        <v>95.7</v>
+        <v>8.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>90.9</v>
+        <v>71.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.0</v>
+        <v>28143.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.4</v>
+        <v>5188.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>84.8</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>30296.0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>5228.0</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>2.0220923E7</v>
+        <v>60.0</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2.0220822E7</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>124</v>
       </c>
       <c r="AK3" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="AL3" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="AM3" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="AN3" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="AO3" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="AP3" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="AQ3" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="AR3" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.0210924E7</v>
+        <v>2.0210707E7</v>
       </c>
       <c r="AT3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AV3" t="e">
-        <v>#N/A</v>
+        <v>177</v>
+      </c>
+      <c r="AU3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>192</v>
       </c>
       <c r="AW3" t="n">
-        <v>19432.0</v>
+        <v>6367.0</v>
       </c>
       <c r="AX3" t="n">
-        <v>42000.0</v>
+        <v>43457.0</v>
       </c>
       <c r="AY3" t="n">
-        <v>8.16144E8</v>
+        <v>7.0E8</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.34</v>
+        <v>0.0900092801802302</v>
       </c>
       <c r="BA3" t="n">
-        <v>2.397579E9</v>
+        <v>3.07402435E9</v>
       </c>
       <c r="BB3" t="e">
         <v>#N/A</v>
       </c>
       <c r="BC3" t="s">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="BD3" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="BE3" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="BF3" t="s">
-        <v>136</v>
+        <v>231</v>
       </c>
       <c r="BG3" t="n">
-        <v>1.13</v>
+        <v>3.26</v>
       </c>
       <c r="BH3" t="n">
-        <v>465.0</v>
+        <v>494.0</v>
       </c>
       <c r="BI3" t="s">
-        <v>141</v>
+        <v>247</v>
       </c>
       <c r="BJ3" t="n">
-        <v>100.0</v>
+        <v>25.0</v>
       </c>
       <c r="BK3" t="s">
-        <v>144</v>
+        <v>252</v>
       </c>
       <c r="BL3" t="s">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="BM3" t="s">
-        <v>146</v>
-      </c>
-      <c r="BN3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BO3" t="e">
-        <v>#N/A</v>
+        <v>254</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>255</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>257</v>
       </c>
       <c r="BP3" t="s">
-        <v>147</v>
+        <v>260</v>
       </c>
       <c r="BQ3" t="n">
         <v>2.0</v>
@@ -1141,13 +1495,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.0220914E7</v>
+        <v>2.0211105E7</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" t="n">
-        <v>2.998436717E9</v>
+        <v>2.590729371E9</v>
       </c>
       <c r="D4" t="e">
         <v>#N/A</v>
@@ -1155,194 +1509,194 @@
       <c r="E4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F4" t="s">
-        <v>74</v>
+      <c r="F4" t="n">
+        <v>291.0</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" t="s">
-        <v>82</v>
+        <v>75</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9721.0</v>
       </c>
       <c r="I4" t="n">
-        <v>139.0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" t="s">
-        <v>84</v>
+        <v>80558.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3928.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7.83106269E8</v>
       </c>
       <c r="L4" t="n">
-        <v>348.0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>87</v>
+        <v>97.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>59.1</v>
       </c>
       <c r="N4" t="n">
-        <v>12699.0</v>
+        <v>94.8</v>
       </c>
       <c r="O4" t="n">
-        <v>99954.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2653.0</v>
+        <v>92.4</v>
+      </c>
+      <c r="P4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.269309566E9</v>
+        <v>94.3</v>
       </c>
       <c r="R4" t="n">
-        <v>97.8</v>
+        <v>94.7</v>
       </c>
       <c r="S4" t="n">
-        <v>80.3</v>
+        <v>87.7</v>
       </c>
       <c r="T4" t="n">
-        <v>96.2</v>
+        <v>8.3</v>
       </c>
       <c r="U4" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="V4" t="e">
-        <v>#N/A</v>
+        <v>60.2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>19.2</v>
       </c>
       <c r="W4" t="n">
-        <v>95.8</v>
+        <v>68.6</v>
       </c>
       <c r="X4" t="n">
-        <v>96.1</v>
+        <v>8.9</v>
       </c>
       <c r="Y4" t="n">
-        <v>90.2</v>
+        <v>82.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.5</v>
+        <v>29313.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.6</v>
+        <v>12182.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>75.1</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>29749.0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>5698.0</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>2.0220927E7</v>
+        <v>58.0</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2.022083E7</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>124</v>
       </c>
       <c r="AK4" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="AL4" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="AM4" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="AN4" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="AO4" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="AP4" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="AQ4" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="AR4" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.0220503E7</v>
+        <v>2.0210408E7</v>
       </c>
       <c r="AT4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>121</v>
+        <v>178</v>
+      </c>
+      <c r="AU4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AV4" t="e">
         <v>#N/A</v>
       </c>
       <c r="AW4" t="n">
-        <v>12905.0</v>
+        <v>8410.0</v>
       </c>
       <c r="AX4" t="n">
-        <v>61000.0</v>
+        <v>28640.0</v>
       </c>
       <c r="AY4" t="n">
-        <v>7.87205E8</v>
+        <v>6.09292209E8</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.282</v>
+        <v>0.0783540963167712</v>
       </c>
       <c r="BA4" t="n">
-        <v>2.790013E9</v>
+        <v>3.07402435E9</v>
       </c>
       <c r="BB4" t="e">
         <v>#N/A</v>
       </c>
       <c r="BC4" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="BD4" t="s">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="BE4" t="s">
-        <v>134</v>
+        <v>228</v>
       </c>
       <c r="BF4" t="s">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="BG4" t="n">
-        <v>1.14</v>
+        <v>3.26</v>
       </c>
       <c r="BH4" t="n">
-        <v>483.0</v>
+        <v>494.0</v>
       </c>
       <c r="BI4" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="BJ4" t="n">
-        <v>150.0</v>
+        <v>25.0</v>
       </c>
       <c r="BK4" t="s">
-        <v>144</v>
+        <v>252</v>
       </c>
       <c r="BL4" t="s">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="BM4" t="s">
-        <v>146</v>
-      </c>
-      <c r="BN4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BO4" t="e">
-        <v>#N/A</v>
+        <v>254</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>255</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>257</v>
       </c>
       <c r="BP4" t="s">
-        <v>148</v>
+        <v>261</v>
       </c>
       <c r="BQ4" t="n">
         <v>3.0</v>
@@ -1356,7 +1710,7 @@
         <v>70</v>
       </c>
       <c r="C5" t="n">
-        <v>2.998436717E9</v>
+        <v>3.016963964E9</v>
       </c>
       <c r="D5" t="e">
         <v>#N/A</v>
@@ -1364,185 +1718,185 @@
       <c r="E5" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F5" t="s">
-        <v>75</v>
+      <c r="F5" t="n">
+        <v>346.0</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="H5" t="n">
+        <v>20626.0</v>
       </c>
       <c r="I5" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" t="s">
-        <v>84</v>
+        <v>99093.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2911.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.043883557E9</v>
       </c>
       <c r="L5" t="n">
-        <v>350.0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>88</v>
+        <v>97.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>79.0</v>
       </c>
       <c r="N5" t="n">
-        <v>23379.0</v>
+        <v>96.3</v>
       </c>
       <c r="O5" t="n">
-        <v>103889.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3028.0</v>
+        <v>93.8</v>
+      </c>
+      <c r="P5" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.428824781E9</v>
+        <v>95.6</v>
       </c>
       <c r="R5" t="n">
-        <v>97.8</v>
+        <v>95.6</v>
       </c>
       <c r="S5" t="n">
-        <v>78.2</v>
+        <v>90.8</v>
       </c>
       <c r="T5" t="n">
-        <v>96.2</v>
+        <v>8.0</v>
       </c>
       <c r="U5" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="V5" t="e">
-        <v>#N/A</v>
+        <v>52.1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>30.7</v>
       </c>
       <c r="W5" t="n">
-        <v>95.7</v>
+        <v>59.0</v>
       </c>
       <c r="X5" t="n">
-        <v>95.3</v>
+        <v>22.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>88.1</v>
+        <v>75.1</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.9</v>
+        <v>30222.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>60.4</v>
+        <v>6292.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>68.4</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>30190.0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>6005.0</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ5" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH5" t="n">
         <v>2.0220927E7</v>
       </c>
+      <c r="AI5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>124</v>
+      </c>
       <c r="AK5" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="AL5" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="AM5" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="AN5" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="AO5" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="AP5" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="AQ5" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="AR5" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.0220517E7</v>
+        <v>2.0211001E7</v>
       </c>
       <c r="AT5" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="AU5" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="AV5" t="e">
         <v>#N/A</v>
       </c>
       <c r="AW5" t="n">
-        <v>18148.0</v>
+        <v>18000.0</v>
       </c>
       <c r="AX5" t="n">
-        <v>93000.0</v>
+        <v>51000.0</v>
       </c>
       <c r="AY5" t="n">
-        <v>1.687764E9</v>
+        <v>9.18E8</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.605</v>
+        <v>0.383</v>
       </c>
       <c r="BA5" t="n">
-        <v>2.790013E9</v>
+        <v>2.397579E9</v>
       </c>
       <c r="BB5" t="e">
         <v>#N/A</v>
       </c>
       <c r="BC5" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
       <c r="BD5" t="s">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="BE5" t="s">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="BF5" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="BG5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="BH5" t="n">
-        <v>483.0</v>
+        <v>465.0</v>
       </c>
       <c r="BI5" t="s">
-        <v>142</v>
+        <v>248</v>
       </c>
       <c r="BJ5" t="n">
-        <v>150.0</v>
+        <v>100.0</v>
       </c>
       <c r="BK5" t="s">
-        <v>144</v>
+        <v>252</v>
       </c>
       <c r="BL5" t="s">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="BM5" t="s">
-        <v>146</v>
+        <v>254</v>
       </c>
       <c r="BN5" t="e">
         <v>#N/A</v>
@@ -1551,7 +1905,7 @@
         <v>#N/A</v>
       </c>
       <c r="BP5" t="s">
-        <v>148</v>
+        <v>262</v>
       </c>
       <c r="BQ5" t="n">
         <v>4.0</v>
@@ -1559,13 +1913,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.0220914E7</v>
+        <v>2.0211105E7</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
       </c>
       <c r="C6" t="n">
-        <v>2.97731327E9</v>
+        <v>2.844617503E9</v>
       </c>
       <c r="D6" t="e">
         <v>#N/A</v>
@@ -1573,194 +1927,194 @@
       <c r="E6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F6" t="s">
-        <v>76</v>
+      <c r="F6" t="n">
+        <v>292.0</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9455.0</v>
       </c>
       <c r="I6" t="n">
-        <v>135.0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" t="s">
-        <v>84</v>
+        <v>74231.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2844.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7.01851123E8</v>
       </c>
       <c r="L6" t="n">
-        <v>347.0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>89</v>
+        <v>97.6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>65.5</v>
       </c>
       <c r="N6" t="n">
-        <v>10955.0</v>
+        <v>95.6</v>
       </c>
       <c r="O6" t="n">
-        <v>121731.0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2619.0</v>
+        <v>93.3</v>
+      </c>
+      <c r="P6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.333565629E9</v>
+        <v>94.9</v>
       </c>
       <c r="R6" t="n">
-        <v>97.2</v>
+        <v>96.0</v>
       </c>
       <c r="S6" t="n">
-        <v>77.7</v>
+        <v>89.9</v>
       </c>
       <c r="T6" t="n">
-        <v>96.1</v>
+        <v>8.1</v>
       </c>
       <c r="U6" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="V6" t="e">
-        <v>#N/A</v>
+        <v>60.3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>21.5</v>
       </c>
       <c r="W6" t="n">
-        <v>95.7</v>
+        <v>68.2</v>
       </c>
       <c r="X6" t="n">
-        <v>94.7</v>
+        <v>11.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>86.9</v>
+        <v>89.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.9</v>
+        <v>29020.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>58.6</v>
+        <v>7138.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>63.8</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>29872.0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>5200.0</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>2.0220927E7</v>
+        <v>66.0</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2.022083E7</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>124</v>
       </c>
       <c r="AK6" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="AL6" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="AM6" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="AN6" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="AO6" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="AP6" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="AQ6" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="AR6" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.0220607E7</v>
+        <v>2.0210623E7</v>
       </c>
       <c r="AT6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV6" t="e">
-        <v>#N/A</v>
+        <v>180</v>
+      </c>
+      <c r="AU6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>193</v>
       </c>
       <c r="AW6" t="n">
-        <v>9565.0</v>
+        <v>7769.0</v>
       </c>
       <c r="AX6" t="n">
-        <v>62000.0</v>
+        <v>58060.0</v>
       </c>
       <c r="AY6" t="n">
-        <v>5.9303E8</v>
+        <v>7.0E8</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.236</v>
+        <v>0.146236523250439</v>
       </c>
       <c r="BA6" t="n">
-        <v>2.508142E9</v>
+        <v>3.084510832E9</v>
       </c>
       <c r="BB6" t="e">
         <v>#N/A</v>
       </c>
       <c r="BC6" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="BD6" t="s">
-        <v>132</v>
+        <v>216</v>
       </c>
       <c r="BE6" t="s">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="BF6" t="s">
-        <v>139</v>
+        <v>233</v>
       </c>
       <c r="BG6" t="n">
-        <v>1.23</v>
+        <v>7.11</v>
       </c>
       <c r="BH6" t="n">
-        <v>544.0</v>
+        <v>483.0</v>
       </c>
       <c r="BI6" t="s">
-        <v>143</v>
+        <v>249</v>
       </c>
       <c r="BJ6" t="n">
-        <v>100.0</v>
+        <v>25.0</v>
       </c>
       <c r="BK6" t="s">
-        <v>144</v>
+        <v>252</v>
       </c>
       <c r="BL6" t="s">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="BM6" t="s">
-        <v>146</v>
-      </c>
-      <c r="BN6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BO6" t="e">
-        <v>#N/A</v>
+        <v>254</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>255</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>257</v>
       </c>
       <c r="BP6" t="s">
-        <v>149</v>
+        <v>263</v>
       </c>
       <c r="BQ6" t="n">
         <v>5.0</v>
@@ -1768,13 +2122,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.0220914E7</v>
+        <v>2.0220801E7</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
       </c>
       <c r="C7" t="n">
-        <v>2.998436717E9</v>
+        <v>3.029374456E9</v>
       </c>
       <c r="D7" t="e">
         <v>#N/A</v>
@@ -1782,194 +2136,194 @@
       <c r="E7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F7" t="s">
-        <v>77</v>
+      <c r="F7" t="n">
+        <v>299.0</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="H7" t="n">
+        <v>24368.0</v>
       </c>
       <c r="I7" t="n">
-        <v>138.0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" t="s">
-        <v>84</v>
+        <v>86984.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2656.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.11963207E9</v>
       </c>
       <c r="L7" t="n">
-        <v>343.0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>90</v>
+        <v>97.7</v>
+      </c>
+      <c r="M7" t="n">
+        <v>79.4</v>
       </c>
       <c r="N7" t="n">
-        <v>9832.0</v>
+        <v>96.2</v>
       </c>
       <c r="O7" t="n">
-        <v>95511.0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2531.0</v>
+        <v>94.1</v>
+      </c>
+      <c r="P7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.39067735E8</v>
+        <v>95.6</v>
       </c>
       <c r="R7" t="n">
-        <v>97.6</v>
+        <v>94.7</v>
       </c>
       <c r="S7" t="n">
-        <v>75.3</v>
+        <v>89.1</v>
       </c>
       <c r="T7" t="n">
-        <v>96.2</v>
+        <v>8.5</v>
       </c>
       <c r="U7" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="V7" t="e">
-        <v>#N/A</v>
+        <v>53.4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>27.2</v>
       </c>
       <c r="W7" t="n">
-        <v>95.8</v>
+        <v>58.2</v>
       </c>
       <c r="X7" t="n">
-        <v>96.4</v>
+        <v>20.9</v>
       </c>
       <c r="Y7" t="n">
-        <v>90.9</v>
+        <v>87.6</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.2</v>
+        <v>30217.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>57.4</v>
+        <v>5594.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>29592.0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>5347.0</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>2.0220923E7</v>
+        <v>125.0</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>2.0220912E7</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>124</v>
       </c>
       <c r="AK7" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="AL7" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="AM7" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="AN7" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="AO7" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="AP7" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="AQ7" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="AR7" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.0220216E7</v>
+        <v>2.0211011E7</v>
       </c>
       <c r="AT7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>121</v>
+        <v>106</v>
+      </c>
+      <c r="AU7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AV7" t="e">
         <v>#N/A</v>
       </c>
       <c r="AW7" t="n">
-        <v>9266.0</v>
+        <v>18171.0</v>
       </c>
       <c r="AX7" t="n">
-        <v>34000.0</v>
+        <v>55879.0</v>
       </c>
       <c r="AY7" t="n">
-        <v>3.15044E8</v>
+        <v>1.015377309E9</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.113</v>
+        <v>0.414</v>
       </c>
       <c r="BA7" t="n">
-        <v>2.790013E9</v>
+        <v>2.454088919E9</v>
       </c>
       <c r="BB7" t="e">
         <v>#N/A</v>
       </c>
       <c r="BC7" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="BD7" t="s">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="BE7" t="s">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="BF7" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="BG7" t="n">
-        <v>1.14</v>
+        <v>2.97</v>
       </c>
       <c r="BH7" t="n">
-        <v>483.0</v>
+        <v>450.0</v>
       </c>
       <c r="BI7" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="BJ7" t="n">
-        <v>150.0</v>
+        <v>30.0</v>
       </c>
       <c r="BK7" t="s">
-        <v>144</v>
+        <v>252</v>
       </c>
       <c r="BL7" t="s">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="BM7" t="s">
-        <v>146</v>
-      </c>
-      <c r="BN7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BO7" t="e">
-        <v>#N/A</v>
+        <v>254</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>256</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>258</v>
       </c>
       <c r="BP7" t="s">
-        <v>148</v>
+        <v>264</v>
       </c>
       <c r="BQ7" t="n">
         <v>6.0</v>
@@ -1977,13 +2331,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.0220914E7</v>
+        <v>2.0211105E7</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" t="n">
-        <v>2.97731327E9</v>
+        <v>2.590729371E9</v>
       </c>
       <c r="D8" t="e">
         <v>#N/A</v>
@@ -1991,197 +2345,2914 @@
       <c r="E8" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F8" t="s">
-        <v>78</v>
+      <c r="F8" t="n">
+        <v>118.0</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3970.0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" t="s">
-        <v>84</v>
+        <v>95753.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1888.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.8014059E8</v>
       </c>
       <c r="L8" t="n">
-        <v>342.0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>91</v>
+        <v>97.9</v>
+      </c>
+      <c r="M8" t="n">
+        <v>71.6</v>
       </c>
       <c r="N8" t="n">
-        <v>13518.0</v>
+        <v>95.3</v>
       </c>
       <c r="O8" t="n">
-        <v>86229.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3160.0</v>
+        <v>91.4</v>
+      </c>
+      <c r="P8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.165643785E9</v>
+        <v>94.7</v>
       </c>
       <c r="R8" t="n">
-        <v>98.1</v>
+        <v>92.5</v>
       </c>
       <c r="S8" t="n">
-        <v>69.2</v>
+        <v>84.8</v>
       </c>
       <c r="T8" t="n">
-        <v>96.1</v>
+        <v>8.5</v>
       </c>
       <c r="U8" t="n">
-        <v>93.6</v>
-      </c>
-      <c r="V8" t="e">
-        <v>#N/A</v>
+        <v>56.9</v>
+      </c>
+      <c r="V8" t="n">
+        <v>19.5</v>
       </c>
       <c r="W8" t="n">
-        <v>95.7</v>
+        <v>66.8</v>
       </c>
       <c r="X8" t="n">
-        <v>96.6</v>
+        <v>7.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>91.1</v>
+        <v>74.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.0</v>
+        <v>27459.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>60.1</v>
+        <v>3098.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>82.9</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>29828.0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>7794.0</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>2.0220923E7</v>
+        <v>61.0</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>2.0211117E7</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>124</v>
       </c>
       <c r="AK8" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="AL8" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="AM8" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="AN8" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="AO8" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="AP8" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="AQ8" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="AR8" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.0220405E7</v>
+        <v>2.0210707E7</v>
       </c>
       <c r="AT8" t="s">
-        <v>119</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV8" t="e">
-        <v>#N/A</v>
+        <v>181</v>
+      </c>
+      <c r="AU8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>194</v>
       </c>
       <c r="AW8" t="n">
-        <v>11784.0</v>
+        <v>3870.0</v>
       </c>
       <c r="AX8" t="n">
-        <v>43000.0</v>
+        <v>8371.0</v>
       </c>
       <c r="AY8" t="n">
-        <v>5.06712E8</v>
+        <v>4.28E8</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.202</v>
+        <v>0.0105385534763249</v>
       </c>
       <c r="BA8" t="n">
-        <v>2.508142E9</v>
+        <v>3.07402435E9</v>
       </c>
       <c r="BB8" t="e">
         <v>#N/A</v>
       </c>
       <c r="BC8" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="BD8" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="BE8" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="BF8" t="s">
-        <v>135</v>
+        <v>235</v>
       </c>
       <c r="BG8" t="n">
-        <v>1.23</v>
+        <v>3.26</v>
       </c>
       <c r="BH8" t="n">
-        <v>544.0</v>
+        <v>494.0</v>
       </c>
       <c r="BI8" t="s">
-        <v>143</v>
+        <v>247</v>
       </c>
       <c r="BJ8" t="n">
-        <v>100.0</v>
+        <v>25.0</v>
       </c>
       <c r="BK8" t="s">
-        <v>144</v>
+        <v>252</v>
       </c>
       <c r="BL8" t="s">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="BM8" t="s">
-        <v>146</v>
-      </c>
-      <c r="BN8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BO8" t="e">
-        <v>#N/A</v>
+        <v>254</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>255</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>257</v>
       </c>
       <c r="BP8" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="BQ8" t="n">
         <v>7.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2.0220801E7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.018845805E9</v>
+      </c>
+      <c r="D9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F9" t="n">
+        <v>294.0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" t="n">
+        <v>14711.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>107577.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2973.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.582564131E9</v>
+      </c>
+      <c r="L9" t="n">
+        <v>97.1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="N9" t="n">
+        <v>96.4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>93.6</v>
+      </c>
+      <c r="P9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="R9" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="U9" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>30186.0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>6401.0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>2.022083E7</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>2.0211111E7</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>13672.0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>36016.0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>4.92410752E8</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>2.525739924E9</v>
+      </c>
+      <c r="BB9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>197</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>213</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>229</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>231</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>253</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>254</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>256</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>258</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>265</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2.0220801E7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.018845805E9</v>
+      </c>
+      <c r="D10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F10" t="n">
+        <v>295.0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" t="n">
+        <v>23571.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>81085.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2361.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.911247544E9</v>
+      </c>
+      <c r="L10" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>80.9</v>
+      </c>
+      <c r="N10" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>93.1</v>
+      </c>
+      <c r="P10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>95.6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="S10" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="X10" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>30263.0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>4527.0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>2.022083E7</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>2.0211102E7</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>16834.0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>53138.0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>8.94525092E8</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>2.525739924E9</v>
+      </c>
+      <c r="BB10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>203</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>219</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>229</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>253</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>254</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>256</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>258</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>265</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2.0211105E7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.590729371E9</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F11" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" t="n">
+        <v>14435.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>101141.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2781.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.459966283E9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="M11" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>95.1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>92.9</v>
+      </c>
+      <c r="P11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="S11" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="U11" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="V11" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="W11" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="X11" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>82.4</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>30088.0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>6185.0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>2.0220822E7</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>2.0210723E7</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>195</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>14332.0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>65351.0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>4.357E8</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.304685462885159</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>3.07402435E9</v>
+      </c>
+      <c r="BB11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>204</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>220</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>204</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>237</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>494.0</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>253</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>254</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>255</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>257</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>260</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2.0220801E7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.029374456E9</v>
+      </c>
+      <c r="D12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F12" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" t="n">
+        <v>13551.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>109470.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2927.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.48342968E9</v>
+      </c>
+      <c r="L12" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>93.6</v>
+      </c>
+      <c r="P12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>95.6</v>
+      </c>
+      <c r="R12" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="T12" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="V12" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="W12" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="X12" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>73.4</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>30143.0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>6361.0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>2.022083E7</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>2.0211209E7</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>13505.0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>42605.0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>5.75380525E8</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>2.454088919E9</v>
+      </c>
+      <c r="BB12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>205</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>229</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>238</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>253</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>254</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>256</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>258</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>264</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2.0220801E7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.018845805E9</v>
+      </c>
+      <c r="D13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F13" t="n">
+        <v>301.0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" t="n">
+        <v>23868.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>91213.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2461.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.177064134E9</v>
+      </c>
+      <c r="L13" t="n">
+        <v>97.9</v>
+      </c>
+      <c r="M13" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="P13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>95.6</v>
+      </c>
+      <c r="R13" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="S13" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="V13" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="W13" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="X13" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>82.4</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>30361.0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>4728.0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>2.0220912E7</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>2.0211213E7</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>19146.0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>59480.0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>1.13880408E9</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>2.525739924E9</v>
+      </c>
+      <c r="BB13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>206</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>222</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>229</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>239</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>253</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>254</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>256</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>258</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>265</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2.0220914E7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.016963964E9</v>
+      </c>
+      <c r="D14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F14" t="n">
+        <v>339.0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" t="n">
+        <v>22986.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>93286.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2535.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.144274722E9</v>
+      </c>
+      <c r="L14" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="N14" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="O14" t="n">
+        <v>93.9</v>
+      </c>
+      <c r="P14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>95.6</v>
+      </c>
+      <c r="R14" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="S14" t="n">
+        <v>90.9</v>
+      </c>
+      <c r="T14" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="W14" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="X14" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>30296.0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>5228.0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>2.0220923E7</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>2.0210924E7</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>189</v>
+      </c>
+      <c r="AV14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>19432.0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>42000.0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>8.16144E8</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>2.397579E9</v>
+      </c>
+      <c r="BB14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>196</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>229</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>240</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>465.0</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>248</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>253</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>254</v>
+      </c>
+      <c r="BN14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BO14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>262</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2.0220914E7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.998436717E9</v>
+      </c>
+      <c r="D15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F15" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12699.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>99954.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2653.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.269309566E9</v>
+      </c>
+      <c r="L15" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="M15" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="P15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="R15" t="n">
+        <v>96.1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="T15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="V15" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="X15" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>75.1</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>29749.0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>5698.0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>2.0220927E7</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>2.0220503E7</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>190</v>
+      </c>
+      <c r="AV15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>12905.0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>61000.0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>7.87205E8</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>2.790013E9</v>
+      </c>
+      <c r="BB15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>201</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>217</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>229</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>234</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>483.0</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>250</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>253</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>254</v>
+      </c>
+      <c r="BN15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BO15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>266</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2.0220801E7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.029374456E9</v>
+      </c>
+      <c r="D16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F16" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" t="n">
+        <v>17696.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>93029.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2503.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.646232433E9</v>
+      </c>
+      <c r="L16" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="M16" t="n">
+        <v>78.9</v>
+      </c>
+      <c r="N16" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="P16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="R16" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="S16" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="T16" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="U16" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="V16" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="W16" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="X16" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>83.1</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>29995.0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>4942.0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>2.0220912E7</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>2.022012E7</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>14606.0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>38939.0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>5.68743034E8</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>2.454088919E9</v>
+      </c>
+      <c r="BB16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>223</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>229</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>253</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>254</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>256</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>258</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>264</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2.0220914E7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.998436717E9</v>
+      </c>
+      <c r="D17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F17" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" t="n">
+        <v>23379.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>103889.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3028.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.428824781E9</v>
+      </c>
+      <c r="L17" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="M17" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="P17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="R17" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>88.1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="U17" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="W17" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="X17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>68.4</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>30190.0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>6005.0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>2.0220927E7</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>2.0220517E7</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>185</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>190</v>
+      </c>
+      <c r="AV17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>18148.0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>93000.0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>1.687764E9</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>2.790013E9</v>
+      </c>
+      <c r="BB17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>208</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>224</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>229</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>242</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>483.0</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>250</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>253</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>254</v>
+      </c>
+      <c r="BN17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BO17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>266</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2.0220801E7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.029374456E9</v>
+      </c>
+      <c r="D18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F18" t="n">
+        <v>298.0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" t="n">
+        <v>14743.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>83952.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2126.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.237706224E9</v>
+      </c>
+      <c r="L18" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="N18" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="P18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>96.6</v>
+      </c>
+      <c r="S18" t="n">
+        <v>90.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="W18" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>29313.0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>4230.0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>2.022083E7</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>2.0220211E7</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>11091.0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>26561.0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>2.94588051E8</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>2.454088919E9</v>
+      </c>
+      <c r="BB18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>209</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>225</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>229</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>243</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>253</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>254</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>256</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>258</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>264</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2.0220914E7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.97731327E9</v>
+      </c>
+      <c r="D19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F19" t="n">
+        <v>347.0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10955.0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>121731.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2619.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.333565629E9</v>
+      </c>
+      <c r="L19" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="N19" t="n">
+        <v>96.1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="P19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="R19" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="S19" t="n">
+        <v>86.9</v>
+      </c>
+      <c r="T19" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="U19" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="V19" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="W19" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="X19" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>29872.0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>5200.0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2.0220927E7</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>2.0220607E7</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>190</v>
+      </c>
+      <c r="AV19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>9565.0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>62000.0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>5.9303E8</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>2.508142E9</v>
+      </c>
+      <c r="BB19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>210</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>226</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>229</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>244</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>544.0</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>251</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>253</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>254</v>
+      </c>
+      <c r="BN19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BO19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>267</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2.0220914E7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.998436717E9</v>
+      </c>
+      <c r="D20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F20" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9832.0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>95511.0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2531.0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>9.39067735E8</v>
+      </c>
+      <c r="L20" t="n">
+        <v>97.6</v>
+      </c>
+      <c r="M20" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="O20" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="P20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="R20" t="n">
+        <v>96.4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>90.9</v>
+      </c>
+      <c r="T20" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="U20" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="W20" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="X20" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>29592.0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>5347.0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>2.0220923E7</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>174</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>2.0220216E7</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>187</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AV20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>9266.0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>34000.0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>3.15044E8</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>2.790013E9</v>
+      </c>
+      <c r="BB20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>211</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>227</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>229</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>245</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>483.0</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>250</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>253</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>254</v>
+      </c>
+      <c r="BN20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BO20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>266</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2.0220914E7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.97731327E9</v>
+      </c>
+      <c r="D21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F21" t="n">
+        <v>342.0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" t="n">
+        <v>13518.0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>86229.0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3160.0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.165643785E9</v>
+      </c>
+      <c r="L21" t="n">
+        <v>98.1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>96.1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>93.6</v>
+      </c>
+      <c r="P21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="R21" t="n">
+        <v>96.6</v>
+      </c>
+      <c r="S21" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="W21" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="X21" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>82.9</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>29828.0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>7794.0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>2.0220923E7</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>2.0220405E7</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>190</v>
+      </c>
+      <c r="AV21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>11784.0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>43000.0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>5.06712E8</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>2.508142E9</v>
+      </c>
+      <c r="BB21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>199</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>215</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>229</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>232</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>544.0</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>251</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>253</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>254</v>
+      </c>
+      <c r="BN21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BO21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>267</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>20.0</v>
       </c>
     </row>
   </sheetData>

--- a/2022-08-18 Prepare for UTSA/SGLT2.sn.aggr.info.xlsx
+++ b/2022-08-18 Prepare for UTSA/SGLT2.sn.aggr.info.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="295">
   <si>
     <t>Sequencing_Date</t>
   </si>
@@ -107,6 +107,9 @@
     <t>Project</t>
   </si>
   <si>
+    <t>Species</t>
+  </si>
+  <si>
     <t>Agg</t>
   </si>
   <si>
@@ -257,6 +260,9 @@
     <t>76647_V11_combine_force14711</t>
   </si>
   <si>
+    <t>76647_V5_3_combine_force14101</t>
+  </si>
+  <si>
     <t>76649_V11_combine_force23571</t>
   </si>
   <si>
@@ -290,6 +296,9 @@
     <t>76662_V5_2_combine_force9832</t>
   </si>
   <si>
+    <t>76664_V11_1_force8379</t>
+  </si>
+  <si>
     <t>76664_V5_2_combine_force13518</t>
   </si>
   <si>
@@ -311,12 +320,18 @@
     <t>P20220008</t>
   </si>
   <si>
+    <t>P20220012-UTSA</t>
+  </si>
+  <si>
     <t>P20220015</t>
   </si>
   <si>
     <t>P20220014</t>
   </si>
   <si>
+    <t>P20220017</t>
+  </si>
+  <si>
     <t>76615_V5</t>
   </si>
   <si>
@@ -341,6 +356,9 @@
     <t>76647_V11</t>
   </si>
   <si>
+    <t>76647_V5</t>
+  </si>
+  <si>
     <t>76649_V11</t>
   </si>
   <si>
@@ -374,12 +392,18 @@
     <t>76662_V5</t>
   </si>
   <si>
+    <t>76664_V11</t>
+  </si>
+  <si>
     <t>76664_V5</t>
   </si>
   <si>
     <t>SGLT2</t>
   </si>
   <si>
+    <t>Human</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -413,6 +437,9 @@
     <t>/media/jianie/SequencingFiles_6/20220801_Counts/76647_V11_combine_force14711/outs/molecule_info.h5</t>
   </si>
   <si>
+    <t>/media/jianie/SequencingFiles_7/20220926_Counts/76647_V5_3_combine_force14101/outs/molecule_info.h5</t>
+  </si>
+  <si>
     <t>/media/jianie/SequencingFiles_6/20220801_Counts/76649_V11_combine_force23571/outs/molecule_info.h5</t>
   </si>
   <si>
@@ -446,6 +473,9 @@
     <t>/media/jianie/SequencingFiles_6/20220914_Counts/76662_V5_2_combine_force9832/outs/molecule_info.h5</t>
   </si>
   <si>
+    <t>/media/jianie/SequencingFiles_7/20220926_Counts/76664_V11_1_force8379/outs/molecule_info.h5</t>
+  </si>
+  <si>
     <t>/media/jianie/SequencingFiles_6/20220914_Counts/76664_V5_2_combine_force13518/outs/molecule_info.h5</t>
   </si>
   <si>
@@ -461,6 +491,9 @@
     <t>SequencingFiles_6</t>
   </si>
   <si>
+    <t>SequencingFiles_7</t>
+  </si>
+  <si>
     <t>20210126_UTA_NovaSeq_L3_Counts</t>
   </si>
   <si>
@@ -473,6 +506,9 @@
     <t>20220801_Counts</t>
   </si>
   <si>
+    <t>20220926_Counts</t>
+  </si>
+  <si>
     <t>/outs/</t>
   </si>
   <si>
@@ -506,6 +542,9 @@
     <t>/media/jianie/SequencingFiles_6/20220801_Counts/76647_V11_combine_force14711/outs/metrics_summary.csv</t>
   </si>
   <si>
+    <t>/media/jianie/SequencingFiles_7/20220926_Counts/76647_V5_3_combine_force14101/outs/metrics_summary.csv</t>
+  </si>
+  <si>
     <t>/media/jianie/SequencingFiles_6/20220801_Counts/76649_V11_combine_force23571/outs/metrics_summary.csv</t>
   </si>
   <si>
@@ -539,6 +578,9 @@
     <t>/media/jianie/SequencingFiles_6/20220914_Counts/76662_V5_2_combine_force9832/outs/metrics_summary.csv</t>
   </si>
   <si>
+    <t>/media/jianie/SequencingFiles_7/20220926_Counts/76664_V11_1_force8379/outs/metrics_summary.csv</t>
+  </si>
+  <si>
     <t>/media/jianie/SequencingFiles_6/20220914_Counts/76664_V5_2_combine_force13518/outs/metrics_summary.csv</t>
   </si>
   <si>
@@ -560,6 +602,9 @@
     <t>766-43</t>
   </si>
   <si>
+    <t>76647_V5_3rd</t>
+  </si>
+  <si>
     <t>766-49 V5</t>
   </si>
   <si>
@@ -578,6 +623,9 @@
     <t>76662_V5_2nd</t>
   </si>
   <si>
+    <t>76664_V11_1st</t>
+  </si>
+  <si>
     <t>76664_V5_2nd</t>
   </si>
   <si>
@@ -587,6 +635,9 @@
     <t>2nd</t>
   </si>
   <si>
+    <t>1st</t>
+  </si>
+  <si>
     <t>10X31031</t>
   </si>
   <si>
@@ -623,6 +674,9 @@
     <t>SI-TT-E6</t>
   </si>
   <si>
+    <t>SI-TT-B7</t>
+  </si>
+  <si>
     <t>SI-TT-D5</t>
   </si>
   <si>
@@ -650,6 +704,9 @@
     <t>SI-TT-H7</t>
   </si>
   <si>
+    <t>SI-TT-D11</t>
+  </si>
+  <si>
     <t>CACGGTGAAT</t>
   </si>
   <si>
@@ -671,6 +728,9 @@
     <t>TTGAGAGTCA</t>
   </si>
   <si>
+    <t>GCCTTCGGTA</t>
+  </si>
+  <si>
     <t>TGGTTCGGGT</t>
   </si>
   <si>
@@ -698,6 +758,9 @@
     <t>ACCTCGAGCT</t>
   </si>
   <si>
+    <t>CGAATATTCG</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -722,6 +785,9 @@
     <t>CTACCAGGTT</t>
   </si>
   <si>
+    <t>AAATCGTTGG</t>
+  </si>
+  <si>
     <t>CTCCTGCCAC</t>
   </si>
   <si>
@@ -752,6 +818,9 @@
     <t>ATCGAACACA</t>
   </si>
   <si>
+    <t>TTGCTTCCAG</t>
+  </si>
+  <si>
     <t>2.5</t>
   </si>
   <si>
@@ -764,12 +833,18 @@
     <t>22</t>
   </si>
   <si>
+    <t>4.7</t>
+  </si>
+  <si>
     <t>3.6</t>
   </si>
   <si>
     <t>3.4</t>
   </si>
   <si>
+    <t>3.5</t>
+  </si>
+  <si>
     <t>S4 150PE</t>
   </si>
   <si>
@@ -812,10 +887,16 @@
     <t>20220801_L8_fastq</t>
   </si>
   <si>
+    <t>20220926_L12_fastq_UTSA</t>
+  </si>
+  <si>
     <t>20220914_L15_fastq</t>
   </si>
   <si>
     <t>20220914_L14_fastq</t>
+  </si>
+  <si>
+    <t>20220926_L17_fastq</t>
   </si>
 </sst>
 </file>
@@ -1074,13 +1155,16 @@
       <c r="BQ1" t="s">
         <v>68</v>
       </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>2.0210126E7</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" t="n">
         <v>3.028254122E9</v>
@@ -1095,7 +1179,7 @@
         <v>281.0</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H2" t="n">
         <v>10739.0</v>
@@ -1161,126 +1245,129 @@
         <v>35.0</v>
       </c>
       <c r="AC2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AD2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AE2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AF2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH2" t="n">
+        <v>129</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI2" t="n">
         <v>2.0220822E7</v>
       </c>
-      <c r="AI2" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AK2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AL2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="AM2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="AN2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AO2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AP2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="AQ2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AR2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS2" t="n">
+        <v>167</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT2" t="n">
         <v>2.0200909E7</v>
       </c>
-      <c r="AT2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AU2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AW2" t="n">
+      <c r="AU2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AV2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX2" t="n">
         <v>10000.0</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AY2" t="n">
         <v>75000.0</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AZ2" t="n">
         <v>7.5E8</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="BA2" t="n">
         <v>0.25</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BB2" t="n">
         <v>3.0E9</v>
       </c>
-      <c r="BB2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>196</v>
+      <c r="BC2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BD2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="BE2" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="BF2" t="s">
-        <v>230</v>
-      </c>
-      <c r="BG2" t="n">
+        <v>213</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>251</v>
+      </c>
+      <c r="BH2" t="n">
         <v>30.3</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BI2" t="n">
         <v>415.0</v>
       </c>
-      <c r="BI2" t="s">
-        <v>246</v>
-      </c>
-      <c r="BJ2" t="n">
+      <c r="BJ2" t="s">
+        <v>269</v>
+      </c>
+      <c r="BK2" t="n">
         <v>50.0</v>
       </c>
-      <c r="BK2" t="s">
-        <v>252</v>
-      </c>
       <c r="BL2" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="BM2" t="s">
-        <v>254</v>
-      </c>
-      <c r="BN2" t="e">
-        <v>#N/A</v>
+        <v>278</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>279</v>
       </c>
       <c r="BO2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="BP2" t="s">
-        <v>259</v>
-      </c>
-      <c r="BQ2" t="n">
+      <c r="BP2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>284</v>
+      </c>
+      <c r="BR2" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1289,7 +1376,7 @@
         <v>2.0211105E7</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" t="n">
         <v>2.590729371E9</v>
@@ -1304,7 +1391,7 @@
         <v>282.0</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H3" t="n">
         <v>6012.0</v>
@@ -1370,126 +1457,129 @@
         <v>60.0</v>
       </c>
       <c r="AC3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AD3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AE3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AF3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH3" t="n">
+        <v>129</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI3" t="n">
         <v>2.0220822E7</v>
       </c>
-      <c r="AI3" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AK3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AL3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="AM3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AN3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AO3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="AP3" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="AQ3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AR3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS3" t="n">
+        <v>167</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT3" t="n">
         <v>2.0210707E7</v>
       </c>
-      <c r="AT3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AU3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AW3" t="n">
+      <c r="AU3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AV3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX3" t="n">
         <v>6367.0</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AY3" t="n">
         <v>43457.0</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AZ3" t="n">
         <v>7.0E8</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="BA3" t="n">
         <v>0.0900092801802302</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BB3" t="n">
         <v>3.07402435E9</v>
       </c>
-      <c r="BB3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>197</v>
+      <c r="BC3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BD3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="BE3" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="BF3" t="s">
-        <v>231</v>
-      </c>
-      <c r="BG3" t="n">
+        <v>214</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH3" t="n">
         <v>3.26</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BI3" t="n">
         <v>494.0</v>
       </c>
-      <c r="BI3" t="s">
-        <v>247</v>
-      </c>
-      <c r="BJ3" t="n">
+      <c r="BJ3" t="s">
+        <v>270</v>
+      </c>
+      <c r="BK3" t="n">
         <v>25.0</v>
       </c>
-      <c r="BK3" t="s">
-        <v>252</v>
-      </c>
       <c r="BL3" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="BM3" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="BN3" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="BO3" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="BP3" t="s">
-        <v>260</v>
-      </c>
-      <c r="BQ3" t="n">
+        <v>282</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>285</v>
+      </c>
+      <c r="BR3" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -1498,7 +1588,7 @@
         <v>2.0211105E7</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" t="n">
         <v>2.590729371E9</v>
@@ -1513,7 +1603,7 @@
         <v>291.0</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" t="n">
         <v>9721.0</v>
@@ -1579,126 +1669,129 @@
         <v>58.0</v>
       </c>
       <c r="AC4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AD4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AE4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AF4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH4" t="n">
+        <v>129</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI4" t="n">
         <v>2.022083E7</v>
       </c>
-      <c r="AI4" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AK4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AL4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AM4" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AN4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AO4" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="AP4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="AQ4" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AR4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AS4" t="n">
+        <v>167</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT4" t="n">
         <v>2.0210408E7</v>
       </c>
-      <c r="AT4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AU4" t="e">
-        <v>#N/A</v>
+      <c r="AU4" t="s">
+        <v>192</v>
       </c>
       <c r="AV4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX4" t="n">
         <v>8410.0</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AY4" t="n">
         <v>28640.0</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AZ4" t="n">
         <v>6.09292209E8</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="BA4" t="n">
         <v>0.0783540963167712</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BB4" t="n">
         <v>3.07402435E9</v>
       </c>
-      <c r="BB4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>198</v>
+      <c r="BC4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BD4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BE4" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="BF4" t="s">
-        <v>228</v>
-      </c>
-      <c r="BG4" t="n">
+        <v>249</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>249</v>
+      </c>
+      <c r="BH4" t="n">
         <v>3.26</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BI4" t="n">
         <v>494.0</v>
       </c>
-      <c r="BI4" t="s">
-        <v>247</v>
-      </c>
-      <c r="BJ4" t="n">
+      <c r="BJ4" t="s">
+        <v>270</v>
+      </c>
+      <c r="BK4" t="n">
         <v>25.0</v>
       </c>
-      <c r="BK4" t="s">
-        <v>252</v>
-      </c>
       <c r="BL4" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="BM4" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="BN4" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="BO4" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="BP4" t="s">
-        <v>261</v>
-      </c>
-      <c r="BQ4" t="n">
+        <v>282</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>286</v>
+      </c>
+      <c r="BR4" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -1707,7 +1800,7 @@
         <v>2.0220914E7</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" t="n">
         <v>3.016963964E9</v>
@@ -1722,7 +1815,7 @@
         <v>346.0</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" t="n">
         <v>20626.0</v>
@@ -1788,126 +1881,129 @@
         <v>132.0</v>
       </c>
       <c r="AC5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AD5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AE5" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AF5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH5" t="n">
+        <v>129</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI5" t="n">
         <v>2.0220927E7</v>
       </c>
-      <c r="AI5" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ5" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AK5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AL5" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="AM5" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AN5" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="AO5" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="AP5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="AQ5" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AR5" t="s">
-        <v>159</v>
-      </c>
-      <c r="AS5" t="n">
+        <v>167</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT5" t="n">
         <v>2.0211001E7</v>
       </c>
-      <c r="AT5" t="s">
-        <v>179</v>
-      </c>
       <c r="AU5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AW5" t="n">
+        <v>193</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX5" t="n">
         <v>18000.0</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AY5" t="n">
         <v>51000.0</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AZ5" t="n">
         <v>9.18E8</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="BA5" t="n">
         <v>0.383</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BB5" t="n">
         <v>2.397579E9</v>
       </c>
-      <c r="BB5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>199</v>
+      <c r="BC5" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BD5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="BE5" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="BF5" t="s">
-        <v>232</v>
-      </c>
-      <c r="BG5" t="n">
+        <v>250</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>253</v>
+      </c>
+      <c r="BH5" t="n">
         <v>1.13</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BI5" t="n">
         <v>465.0</v>
       </c>
-      <c r="BI5" t="s">
-        <v>248</v>
-      </c>
-      <c r="BJ5" t="n">
+      <c r="BJ5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BK5" t="n">
         <v>100.0</v>
       </c>
-      <c r="BK5" t="s">
-        <v>252</v>
-      </c>
       <c r="BL5" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="BM5" t="s">
-        <v>254</v>
-      </c>
-      <c r="BN5" t="e">
-        <v>#N/A</v>
+        <v>278</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>279</v>
       </c>
       <c r="BO5" t="e">
         <v>#N/A</v>
       </c>
-      <c r="BP5" t="s">
-        <v>262</v>
-      </c>
-      <c r="BQ5" t="n">
+      <c r="BP5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>287</v>
+      </c>
+      <c r="BR5" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -1916,7 +2012,7 @@
         <v>2.0211105E7</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" t="n">
         <v>2.844617503E9</v>
@@ -1931,7 +2027,7 @@
         <v>292.0</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H6" t="n">
         <v>9455.0</v>
@@ -1997,126 +2093,129 @@
         <v>66.0</v>
       </c>
       <c r="AC6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AD6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AE6" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AF6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH6" t="n">
+        <v>129</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI6" t="n">
         <v>2.022083E7</v>
       </c>
-      <c r="AI6" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AK6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AL6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AM6" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AN6" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AO6" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="AP6" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="AQ6" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AR6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AS6" t="n">
+        <v>167</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AT6" t="n">
         <v>2.0210623E7</v>
       </c>
-      <c r="AT6" t="s">
-        <v>180</v>
-      </c>
-      <c r="AU6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>193</v>
-      </c>
-      <c r="AW6" t="n">
+      <c r="AU6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX6" t="n">
         <v>7769.0</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AY6" t="n">
         <v>58060.0</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AZ6" t="n">
         <v>7.0E8</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="BA6" t="n">
         <v>0.146236523250439</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BB6" t="n">
         <v>3.084510832E9</v>
       </c>
-      <c r="BB6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>200</v>
+      <c r="BC6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BD6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="BE6" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="BF6" t="s">
-        <v>233</v>
-      </c>
-      <c r="BG6" t="n">
+        <v>217</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>254</v>
+      </c>
+      <c r="BH6" t="n">
         <v>7.11</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BI6" t="n">
         <v>483.0</v>
       </c>
-      <c r="BI6" t="s">
-        <v>249</v>
-      </c>
-      <c r="BJ6" t="n">
+      <c r="BJ6" t="s">
+        <v>272</v>
+      </c>
+      <c r="BK6" t="n">
         <v>25.0</v>
       </c>
-      <c r="BK6" t="s">
-        <v>252</v>
-      </c>
       <c r="BL6" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="BM6" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="BN6" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="BO6" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="BP6" t="s">
-        <v>263</v>
-      </c>
-      <c r="BQ6" t="n">
+        <v>282</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>288</v>
+      </c>
+      <c r="BR6" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -2125,7 +2224,7 @@
         <v>2.0220801E7</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" t="n">
         <v>3.029374456E9</v>
@@ -2140,7 +2239,7 @@
         <v>299.0</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H7" t="n">
         <v>24368.0</v>
@@ -2206,126 +2305,129 @@
         <v>125.0</v>
       </c>
       <c r="AC7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AD7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AE7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AF7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH7" t="n">
+        <v>129</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI7" t="n">
         <v>2.0220912E7</v>
       </c>
-      <c r="AI7" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AK7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AL7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AM7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AN7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AO7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AP7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="AQ7" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AR7" t="s">
-        <v>161</v>
-      </c>
-      <c r="AS7" t="n">
+        <v>167</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT7" t="n">
         <v>2.0211011E7</v>
       </c>
-      <c r="AT7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU7" t="e">
-        <v>#N/A</v>
+      <c r="AU7" t="s">
+        <v>111</v>
       </c>
       <c r="AV7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX7" t="n">
         <v>18171.0</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AY7" t="n">
         <v>55879.0</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AZ7" t="n">
         <v>1.015377309E9</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="BA7" t="n">
         <v>0.414</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BB7" t="n">
         <v>2.454088919E9</v>
       </c>
-      <c r="BB7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>201</v>
+      <c r="BC7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BD7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BE7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="BF7" t="s">
-        <v>234</v>
-      </c>
-      <c r="BG7" t="n">
+        <v>250</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>255</v>
+      </c>
+      <c r="BH7" t="n">
         <v>2.97</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BI7" t="n">
         <v>450.0</v>
       </c>
-      <c r="BI7" t="s">
-        <v>247</v>
-      </c>
-      <c r="BJ7" t="n">
+      <c r="BJ7" t="s">
+        <v>270</v>
+      </c>
+      <c r="BK7" t="n">
         <v>30.0</v>
       </c>
-      <c r="BK7" t="s">
-        <v>252</v>
-      </c>
       <c r="BL7" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="BM7" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="BN7" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="BO7" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="BP7" t="s">
-        <v>264</v>
-      </c>
-      <c r="BQ7" t="n">
+        <v>283</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>289</v>
+      </c>
+      <c r="BR7" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -2334,7 +2436,7 @@
         <v>2.0211105E7</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" t="n">
         <v>2.590729371E9</v>
@@ -2349,7 +2451,7 @@
         <v>118.0</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H8" t="n">
         <v>3970.0</v>
@@ -2415,126 +2517,129 @@
         <v>61.0</v>
       </c>
       <c r="AC8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AD8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AE8" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AF8" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH8" t="n">
+        <v>129</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI8" t="n">
         <v>2.0211117E7</v>
       </c>
-      <c r="AI8" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ8" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AK8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL8" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AM8" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AN8" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AO8" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="AP8" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="AQ8" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AR8" t="s">
-        <v>162</v>
-      </c>
-      <c r="AS8" t="n">
+        <v>167</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT8" t="n">
         <v>2.0210707E7</v>
       </c>
-      <c r="AT8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AU8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AW8" t="n">
+      <c r="AU8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AV8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX8" t="n">
         <v>3870.0</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AY8" t="n">
         <v>8371.0</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AZ8" t="n">
         <v>4.28E8</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="BA8" t="n">
         <v>0.0105385534763249</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BB8" t="n">
         <v>3.07402435E9</v>
       </c>
-      <c r="BB8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>202</v>
+      <c r="BC8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BD8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="BE8" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="BF8" t="s">
-        <v>235</v>
-      </c>
-      <c r="BG8" t="n">
+        <v>219</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>256</v>
+      </c>
+      <c r="BH8" t="n">
         <v>3.26</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BI8" t="n">
         <v>494.0</v>
       </c>
-      <c r="BI8" t="s">
-        <v>247</v>
-      </c>
-      <c r="BJ8" t="n">
+      <c r="BJ8" t="s">
+        <v>270</v>
+      </c>
+      <c r="BK8" t="n">
         <v>25.0</v>
       </c>
-      <c r="BK8" t="s">
-        <v>252</v>
-      </c>
       <c r="BL8" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="BM8" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="BN8" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="BO8" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="BP8" t="s">
-        <v>260</v>
-      </c>
-      <c r="BQ8" t="n">
+        <v>282</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>285</v>
+      </c>
+      <c r="BR8" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -2543,7 +2648,7 @@
         <v>2.0220801E7</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" t="n">
         <v>3.018845805E9</v>
@@ -2558,7 +2663,7 @@
         <v>294.0</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H9" t="n">
         <v>14711.0</v>
@@ -2624,138 +2729,141 @@
         <v>124.0</v>
       </c>
       <c r="AC9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AD9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AE9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AF9" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH9" t="n">
+        <v>129</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI9" t="n">
         <v>2.022083E7</v>
       </c>
-      <c r="AI9" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ9" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AK9" t="s">
         <v>132</v>
       </c>
       <c r="AL9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AM9" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AN9" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AO9" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AP9" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="AQ9" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AR9" t="s">
-        <v>163</v>
-      </c>
-      <c r="AS9" t="n">
+        <v>167</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT9" t="n">
         <v>2.0211111E7</v>
       </c>
-      <c r="AT9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU9" t="e">
-        <v>#N/A</v>
+      <c r="AU9" t="s">
+        <v>113</v>
       </c>
       <c r="AV9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AW9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX9" t="n">
         <v>13672.0</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AY9" t="n">
         <v>36016.0</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="AZ9" t="n">
         <v>4.92410752E8</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="BA9" t="n">
         <v>0.195</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BB9" t="n">
         <v>2.525739924E9</v>
       </c>
-      <c r="BB9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>197</v>
+      <c r="BC9" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BD9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="BE9" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="BF9" t="s">
-        <v>231</v>
-      </c>
-      <c r="BG9" t="n">
+        <v>250</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH9" t="n">
         <v>3.2</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BI9" t="n">
         <v>450.0</v>
       </c>
-      <c r="BI9" t="s">
-        <v>247</v>
-      </c>
-      <c r="BJ9" t="n">
+      <c r="BJ9" t="s">
+        <v>270</v>
+      </c>
+      <c r="BK9" t="n">
         <v>30.0</v>
       </c>
-      <c r="BK9" t="s">
-        <v>252</v>
-      </c>
       <c r="BL9" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="BM9" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="BN9" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="BO9" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="BP9" t="s">
-        <v>265</v>
-      </c>
-      <c r="BQ9" t="n">
+        <v>283</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>290</v>
+      </c>
+      <c r="BR9" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.0220801E7</v>
+        <v>2.0220926E7</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" t="n">
-        <v>3.018845805E9</v>
+        <v>2.968827294E9</v>
       </c>
       <c r="D10" t="e">
         <v>#N/A</v>
@@ -2764,207 +2872,210 @@
         <v>#N/A</v>
       </c>
       <c r="F10" t="n">
-        <v>295.0</v>
+        <v>352.0</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" t="n">
-        <v>23571.0</v>
+        <v>14101.0</v>
       </c>
       <c r="I10" t="n">
-        <v>81085.0</v>
+        <v>115062.0</v>
       </c>
       <c r="J10" t="n">
-        <v>2361.0</v>
+        <v>3624.0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.911247544E9</v>
+        <v>1.622483015E9</v>
       </c>
       <c r="L10" t="n">
-        <v>97.8</v>
+        <v>97.1</v>
       </c>
       <c r="M10" t="n">
-        <v>80.9</v>
+        <v>58.9</v>
       </c>
       <c r="N10" t="n">
-        <v>96.3</v>
+        <v>95.4</v>
       </c>
       <c r="O10" t="n">
-        <v>93.1</v>
+        <v>91.1</v>
       </c>
       <c r="P10" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q10" t="n">
-        <v>95.6</v>
+        <v>94.8</v>
       </c>
       <c r="R10" t="n">
-        <v>95.8</v>
+        <v>85.8</v>
       </c>
       <c r="S10" t="n">
-        <v>89.5</v>
+        <v>76.4</v>
       </c>
       <c r="T10" t="n">
-        <v>7.5</v>
+        <v>8.2</v>
       </c>
       <c r="U10" t="n">
-        <v>54.8</v>
+        <v>52.0</v>
       </c>
       <c r="V10" t="n">
-        <v>27.1</v>
+        <v>16.1</v>
       </c>
       <c r="W10" t="n">
-        <v>63.7</v>
+        <v>57.0</v>
       </c>
       <c r="X10" t="n">
-        <v>16.6</v>
+        <v>9.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.8</v>
+        <v>68.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>30263.0</v>
+        <v>30099.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>4527.0</v>
+        <v>9621.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>123.0</v>
+        <v>130.0</v>
       </c>
       <c r="AC10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AD10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AE10" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AF10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>2.022083E7</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>123</v>
+        <v>129</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>2.0221005E7</v>
       </c>
       <c r="AJ10" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AK10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AL10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AM10" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AN10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="AO10" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="AP10" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="AQ10" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AR10" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>2.0211102E7</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AV10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>16834.0</v>
+        <v>167</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.0210713E7</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AX10" t="n">
-        <v>53138.0</v>
+        <v>14671.0</v>
       </c>
       <c r="AY10" t="n">
-        <v>8.94525092E8</v>
+        <v>30000.0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.354</v>
+        <v>4.4013E8</v>
       </c>
       <c r="BA10" t="n">
-        <v>2.525739924E9</v>
-      </c>
-      <c r="BB10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>203</v>
+        <v>0.173</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>2.545088E9</v>
+      </c>
+      <c r="BC10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BD10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BE10" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="BF10" t="s">
-        <v>236</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>3.2</v>
+        <v>250</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>257</v>
       </c>
       <c r="BH10" t="n">
-        <v>450.0</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>247</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>252</v>
+        <v>1.43</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>337.0</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>273</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>100.0</v>
       </c>
       <c r="BL10" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="BM10" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="BN10" t="s">
-        <v>256</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>258</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>265</v>
-      </c>
-      <c r="BQ10" t="n">
+        <v>279</v>
+      </c>
+      <c r="BO10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BP10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>291</v>
+      </c>
+      <c r="BR10" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.0211105E7</v>
+        <v>2.0220801E7</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C11" t="n">
-        <v>2.590729371E9</v>
+        <v>3.018845805E9</v>
       </c>
       <c r="D11" t="e">
         <v>#N/A</v>
@@ -2973,207 +3084,210 @@
         <v>#N/A</v>
       </c>
       <c r="F11" t="n">
-        <v>287.0</v>
+        <v>295.0</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H11" t="n">
-        <v>14435.0</v>
+        <v>23571.0</v>
       </c>
       <c r="I11" t="n">
-        <v>101141.0</v>
+        <v>81085.0</v>
       </c>
       <c r="J11" t="n">
-        <v>2781.0</v>
+        <v>2361.0</v>
       </c>
       <c r="K11" t="n">
-        <v>1.459966283E9</v>
+        <v>1.911247544E9</v>
       </c>
       <c r="L11" t="n">
-        <v>96.7</v>
+        <v>97.8</v>
       </c>
       <c r="M11" t="n">
-        <v>74.2</v>
+        <v>80.9</v>
       </c>
       <c r="N11" t="n">
-        <v>95.1</v>
+        <v>96.3</v>
       </c>
       <c r="O11" t="n">
-        <v>92.9</v>
+        <v>93.1</v>
       </c>
       <c r="P11" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q11" t="n">
-        <v>94.3</v>
+        <v>95.6</v>
       </c>
       <c r="R11" t="n">
         <v>95.8</v>
       </c>
       <c r="S11" t="n">
-        <v>90.5</v>
+        <v>89.5</v>
       </c>
       <c r="T11" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="U11" t="n">
-        <v>60.8</v>
+        <v>54.8</v>
       </c>
       <c r="V11" t="n">
-        <v>22.3</v>
+        <v>27.1</v>
       </c>
       <c r="W11" t="n">
-        <v>53.7</v>
+        <v>63.7</v>
       </c>
       <c r="X11" t="n">
-        <v>27.9</v>
+        <v>16.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>82.4</v>
+        <v>85.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>30088.0</v>
+        <v>30263.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>6185.0</v>
+        <v>4527.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>64.0</v>
+        <v>123.0</v>
       </c>
       <c r="AC11" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AD11" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AE11" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AF11" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>2.0220822E7</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>123</v>
+        <v>129</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>2.022083E7</v>
       </c>
       <c r="AJ11" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AK11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AL11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AM11" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AN11" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="AO11" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AP11" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="AQ11" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AR11" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>2.0210723E7</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>182</v>
-      </c>
-      <c r="AU11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>195</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>14332.0</v>
+        <v>167</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.0211102E7</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW11" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AX11" t="n">
-        <v>65351.0</v>
+        <v>16834.0</v>
       </c>
       <c r="AY11" t="n">
-        <v>4.357E8</v>
+        <v>53138.0</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.304685462885159</v>
+        <v>8.94525092E8</v>
       </c>
       <c r="BA11" t="n">
-        <v>3.07402435E9</v>
-      </c>
-      <c r="BB11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>204</v>
+        <v>0.354</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>2.525739924E9</v>
+      </c>
+      <c r="BC11" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BD11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BE11" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="BF11" t="s">
-        <v>237</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>3.26</v>
+        <v>250</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>258</v>
       </c>
       <c r="BH11" t="n">
-        <v>494.0</v>
-      </c>
-      <c r="BI11" t="s">
-        <v>247</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="BK11" t="s">
-        <v>252</v>
+        <v>3.2</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>270</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>30.0</v>
       </c>
       <c r="BL11" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="BM11" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="BN11" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="BO11" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="BP11" t="s">
-        <v>260</v>
-      </c>
-      <c r="BQ11" t="n">
+        <v>283</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>290</v>
+      </c>
+      <c r="BR11" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.0220801E7</v>
+        <v>2.0211105E7</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
       </c>
       <c r="C12" t="n">
-        <v>3.029374456E9</v>
+        <v>2.590729371E9</v>
       </c>
       <c r="D12" t="e">
         <v>#N/A</v>
@@ -3182,195 +3296,198 @@
         <v>#N/A</v>
       </c>
       <c r="F12" t="n">
-        <v>296.0</v>
+        <v>287.0</v>
       </c>
       <c r="G12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H12" t="n">
-        <v>13551.0</v>
+        <v>14435.0</v>
       </c>
       <c r="I12" t="n">
-        <v>109470.0</v>
+        <v>101141.0</v>
       </c>
       <c r="J12" t="n">
-        <v>2927.0</v>
+        <v>2781.0</v>
       </c>
       <c r="K12" t="n">
-        <v>1.48342968E9</v>
+        <v>1.459966283E9</v>
       </c>
       <c r="L12" t="n">
-        <v>97.5</v>
+        <v>96.7</v>
       </c>
       <c r="M12" t="n">
-        <v>74.5</v>
+        <v>74.2</v>
       </c>
       <c r="N12" t="n">
-        <v>96.2</v>
+        <v>95.1</v>
       </c>
       <c r="O12" t="n">
-        <v>93.6</v>
+        <v>92.9</v>
       </c>
       <c r="P12" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q12" t="n">
-        <v>95.6</v>
+        <v>94.3</v>
       </c>
       <c r="R12" t="n">
-        <v>96.2</v>
+        <v>95.8</v>
       </c>
       <c r="S12" t="n">
-        <v>90.8</v>
+        <v>90.5</v>
       </c>
       <c r="T12" t="n">
-        <v>9.0</v>
+        <v>7.4</v>
       </c>
       <c r="U12" t="n">
-        <v>60.9</v>
+        <v>60.8</v>
       </c>
       <c r="V12" t="n">
-        <v>20.9</v>
+        <v>22.3</v>
       </c>
       <c r="W12" t="n">
-        <v>55.6</v>
+        <v>53.7</v>
       </c>
       <c r="X12" t="n">
-        <v>24.8</v>
+        <v>27.9</v>
       </c>
       <c r="Y12" t="n">
-        <v>73.4</v>
+        <v>82.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>30143.0</v>
+        <v>30088.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>6361.0</v>
+        <v>6185.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>128.0</v>
+        <v>64.0</v>
       </c>
       <c r="AC12" t="s">
         <v>97</v>
       </c>
       <c r="AD12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AE12" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AF12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>2.022083E7</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>123</v>
+        <v>129</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>2.0220822E7</v>
       </c>
       <c r="AJ12" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AK12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AL12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AM12" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AN12" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="AO12" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="AP12" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="AQ12" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AR12" t="s">
-        <v>166</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>2.0211209E7</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>111</v>
-      </c>
-      <c r="AU12" t="e">
-        <v>#N/A</v>
+        <v>167</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.0210723E7</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>197</v>
       </c>
       <c r="AV12" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AW12" t="n">
-        <v>13505.0</v>
+      <c r="AW12" t="s">
+        <v>212</v>
       </c>
       <c r="AX12" t="n">
-        <v>42605.0</v>
+        <v>14332.0</v>
       </c>
       <c r="AY12" t="n">
-        <v>5.75380525E8</v>
+        <v>65351.0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.234</v>
+        <v>4.357E8</v>
       </c>
       <c r="BA12" t="n">
-        <v>2.454088919E9</v>
-      </c>
-      <c r="BB12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>205</v>
+        <v>0.304685462885159</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>3.07402435E9</v>
+      </c>
+      <c r="BC12" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BD12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BE12" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="BF12" t="s">
-        <v>238</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>2.97</v>
+        <v>222</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>259</v>
       </c>
       <c r="BH12" t="n">
-        <v>450.0</v>
-      </c>
-      <c r="BI12" t="s">
-        <v>247</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>252</v>
+        <v>3.26</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>494.0</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>270</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>25.0</v>
       </c>
       <c r="BL12" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="BM12" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="BN12" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="BO12" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="BP12" t="s">
-        <v>264</v>
-      </c>
-      <c r="BQ12" t="n">
+        <v>282</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>285</v>
+      </c>
+      <c r="BR12" t="n">
         <v>11.0</v>
       </c>
     </row>
@@ -3379,10 +3496,10 @@
         <v>2.0220801E7</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" t="n">
-        <v>3.018845805E9</v>
+        <v>3.029374456E9</v>
       </c>
       <c r="D13" t="e">
         <v>#N/A</v>
@@ -3391,34 +3508,34 @@
         <v>#N/A</v>
       </c>
       <c r="F13" t="n">
-        <v>301.0</v>
+        <v>296.0</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" t="n">
-        <v>23868.0</v>
+        <v>13551.0</v>
       </c>
       <c r="I13" t="n">
-        <v>91213.0</v>
+        <v>109470.0</v>
       </c>
       <c r="J13" t="n">
-        <v>2461.0</v>
+        <v>2927.0</v>
       </c>
       <c r="K13" t="n">
-        <v>2.177064134E9</v>
+        <v>1.48342968E9</v>
       </c>
       <c r="L13" t="n">
-        <v>97.9</v>
+        <v>97.5</v>
       </c>
       <c r="M13" t="n">
-        <v>76.5</v>
+        <v>74.5</v>
       </c>
       <c r="N13" t="n">
         <v>96.2</v>
       </c>
       <c r="O13" t="n">
-        <v>94.5</v>
+        <v>93.6</v>
       </c>
       <c r="P13" t="e">
         <v>#N/A</v>
@@ -3427,171 +3544,174 @@
         <v>95.6</v>
       </c>
       <c r="R13" t="n">
-        <v>96.8</v>
+        <v>96.2</v>
       </c>
       <c r="S13" t="n">
-        <v>92.0</v>
+        <v>90.8</v>
       </c>
       <c r="T13" t="n">
-        <v>8.5</v>
+        <v>9.0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.6</v>
+        <v>60.9</v>
       </c>
       <c r="V13" t="n">
-        <v>25.9</v>
+        <v>20.9</v>
       </c>
       <c r="W13" t="n">
-        <v>60.3</v>
+        <v>55.6</v>
       </c>
       <c r="X13" t="n">
-        <v>21.6</v>
+        <v>24.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>82.4</v>
+        <v>73.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>30361.0</v>
+        <v>30143.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>4728.0</v>
+        <v>6361.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>122.0</v>
+        <v>128.0</v>
       </c>
       <c r="AC13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD13" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AE13" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AF13" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>2.0220912E7</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>123</v>
+        <v>129</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>2.022083E7</v>
       </c>
       <c r="AJ13" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AK13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AL13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM13" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AN13" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AO13" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AP13" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="AQ13" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AR13" t="s">
         <v>167</v>
       </c>
-      <c r="AS13" t="n">
-        <v>2.0211213E7</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU13" t="e">
-        <v>#N/A</v>
+      <c r="AS13" t="s">
+        <v>179</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.0211209E7</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>117</v>
       </c>
       <c r="AV13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AW13" t="n">
-        <v>19146.0</v>
+      <c r="AW13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AX13" t="n">
-        <v>59480.0</v>
+        <v>13505.0</v>
       </c>
       <c r="AY13" t="n">
-        <v>1.13880408E9</v>
+        <v>42605.0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.451</v>
+        <v>5.75380525E8</v>
       </c>
       <c r="BA13" t="n">
-        <v>2.525739924E9</v>
-      </c>
-      <c r="BB13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>206</v>
+        <v>0.234</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>2.454088919E9</v>
+      </c>
+      <c r="BC13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BD13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BE13" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="BF13" t="s">
-        <v>239</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>3.2</v>
+        <v>250</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>260</v>
       </c>
       <c r="BH13" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BI13" t="n">
         <v>450.0</v>
       </c>
-      <c r="BI13" t="s">
-        <v>247</v>
-      </c>
-      <c r="BJ13" t="n">
+      <c r="BJ13" t="s">
+        <v>270</v>
+      </c>
+      <c r="BK13" t="n">
         <v>30.0</v>
       </c>
-      <c r="BK13" t="s">
-        <v>252</v>
-      </c>
       <c r="BL13" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="BM13" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="BN13" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="BO13" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="BP13" t="s">
-        <v>265</v>
-      </c>
-      <c r="BQ13" t="n">
+        <v>283</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>289</v>
+      </c>
+      <c r="BR13" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.0220914E7</v>
+        <v>2.0220801E7</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C14" t="n">
-        <v>3.016963964E9</v>
+        <v>3.018845805E9</v>
       </c>
       <c r="D14" t="e">
         <v>#N/A</v>
@@ -3600,34 +3720,34 @@
         <v>#N/A</v>
       </c>
       <c r="F14" t="n">
-        <v>339.0</v>
+        <v>301.0</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" t="n">
-        <v>22986.0</v>
+        <v>23868.0</v>
       </c>
       <c r="I14" t="n">
-        <v>93286.0</v>
+        <v>91213.0</v>
       </c>
       <c r="J14" t="n">
-        <v>2535.0</v>
+        <v>2461.0</v>
       </c>
       <c r="K14" t="n">
-        <v>2.144274722E9</v>
+        <v>2.177064134E9</v>
       </c>
       <c r="L14" t="n">
-        <v>97.5</v>
+        <v>97.9</v>
       </c>
       <c r="M14" t="n">
-        <v>76.7</v>
+        <v>76.5</v>
       </c>
       <c r="N14" t="n">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="O14" t="n">
-        <v>93.9</v>
+        <v>94.5</v>
       </c>
       <c r="P14" t="e">
         <v>#N/A</v>
@@ -3636,159 +3756,162 @@
         <v>95.6</v>
       </c>
       <c r="R14" t="n">
-        <v>95.7</v>
+        <v>96.8</v>
       </c>
       <c r="S14" t="n">
-        <v>90.9</v>
+        <v>92.0</v>
       </c>
       <c r="T14" t="n">
-        <v>9.0</v>
+        <v>8.5</v>
       </c>
       <c r="U14" t="n">
-        <v>52.4</v>
+        <v>57.6</v>
       </c>
       <c r="V14" t="n">
-        <v>29.4</v>
+        <v>25.9</v>
       </c>
       <c r="W14" t="n">
-        <v>56.8</v>
+        <v>60.3</v>
       </c>
       <c r="X14" t="n">
-        <v>23.6</v>
+        <v>21.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>84.8</v>
+        <v>82.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>30296.0</v>
+        <v>30361.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>5228.0</v>
+        <v>4728.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>133.0</v>
+        <v>122.0</v>
       </c>
       <c r="AC14" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AD14" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AE14" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AF14" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>2.0220923E7</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>123</v>
+        <v>129</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>2.0220912E7</v>
       </c>
       <c r="AJ14" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AK14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AL14" t="s">
         <v>145</v>
       </c>
       <c r="AM14" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AN14" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="AO14" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AP14" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="AQ14" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AR14" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>2.0210924E7</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>183</v>
+        <v>167</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>180</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.0211213E7</v>
       </c>
       <c r="AU14" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="AV14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AW14" t="n">
-        <v>19432.0</v>
+      <c r="AW14" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AX14" t="n">
-        <v>42000.0</v>
+        <v>19146.0</v>
       </c>
       <c r="AY14" t="n">
-        <v>8.16144E8</v>
+        <v>59480.0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.34</v>
+        <v>1.13880408E9</v>
       </c>
       <c r="BA14" t="n">
-        <v>2.397579E9</v>
-      </c>
-      <c r="BB14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>196</v>
+        <v>0.451</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>2.525739924E9</v>
+      </c>
+      <c r="BC14" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BD14" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="BE14" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="BF14" t="s">
-        <v>240</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>1.13</v>
+        <v>250</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>261</v>
       </c>
       <c r="BH14" t="n">
-        <v>465.0</v>
-      </c>
-      <c r="BI14" t="s">
-        <v>248</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>252</v>
+        <v>3.2</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>270</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>30.0</v>
       </c>
       <c r="BL14" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="BM14" t="s">
-        <v>254</v>
-      </c>
-      <c r="BN14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BO14" t="e">
-        <v>#N/A</v>
+        <v>278</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>279</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>281</v>
       </c>
       <c r="BP14" t="s">
-        <v>262</v>
-      </c>
-      <c r="BQ14" t="n">
+        <v>283</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>290</v>
+      </c>
+      <c r="BR14" t="n">
         <v>13.0</v>
       </c>
     </row>
@@ -3800,7 +3923,7 @@
         <v>71</v>
       </c>
       <c r="C15" t="n">
-        <v>2.998436717E9</v>
+        <v>3.016963964E9</v>
       </c>
       <c r="D15" t="e">
         <v>#N/A</v>
@@ -3809,207 +3932,210 @@
         <v>#N/A</v>
       </c>
       <c r="F15" t="n">
-        <v>348.0</v>
+        <v>339.0</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H15" t="n">
-        <v>12699.0</v>
+        <v>22986.0</v>
       </c>
       <c r="I15" t="n">
-        <v>99954.0</v>
+        <v>93286.0</v>
       </c>
       <c r="J15" t="n">
-        <v>2653.0</v>
+        <v>2535.0</v>
       </c>
       <c r="K15" t="n">
-        <v>1.269309566E9</v>
+        <v>2.144274722E9</v>
       </c>
       <c r="L15" t="n">
-        <v>97.8</v>
+        <v>97.5</v>
       </c>
       <c r="M15" t="n">
-        <v>80.3</v>
+        <v>76.7</v>
       </c>
       <c r="N15" t="n">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="O15" t="n">
-        <v>93.5</v>
+        <v>93.9</v>
       </c>
       <c r="P15" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q15" t="n">
-        <v>95.8</v>
+        <v>95.6</v>
       </c>
       <c r="R15" t="n">
-        <v>96.1</v>
+        <v>95.7</v>
       </c>
       <c r="S15" t="n">
-        <v>90.2</v>
+        <v>90.9</v>
       </c>
       <c r="T15" t="n">
-        <v>8.5</v>
+        <v>9.0</v>
       </c>
       <c r="U15" t="n">
-        <v>61.6</v>
+        <v>52.4</v>
       </c>
       <c r="V15" t="n">
-        <v>20.1</v>
+        <v>29.4</v>
       </c>
       <c r="W15" t="n">
-        <v>58.8</v>
+        <v>56.8</v>
       </c>
       <c r="X15" t="n">
-        <v>21.3</v>
+        <v>23.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>75.1</v>
+        <v>84.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>29749.0</v>
+        <v>30296.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>5698.0</v>
+        <v>5228.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>139.0</v>
+        <v>133.0</v>
       </c>
       <c r="AC15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AE15" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AF15" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>2.0220927E7</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>123</v>
+        <v>129</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>2.0220923E7</v>
       </c>
       <c r="AJ15" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AK15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AL15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM15" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AN15" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="AO15" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="AP15" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="AQ15" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AR15" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>2.0220503E7</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>184</v>
+        <v>167</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.0210924E7</v>
       </c>
       <c r="AU15" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>12905.0</v>
+        <v>198</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW15" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AX15" t="n">
-        <v>61000.0</v>
+        <v>19432.0</v>
       </c>
       <c r="AY15" t="n">
-        <v>7.87205E8</v>
+        <v>42000.0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.282</v>
+        <v>8.16144E8</v>
       </c>
       <c r="BA15" t="n">
-        <v>2.790013E9</v>
-      </c>
-      <c r="BB15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>201</v>
+        <v>0.34</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>2.397579E9</v>
+      </c>
+      <c r="BC15" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BD15" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="BE15" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="BF15" t="s">
-        <v>234</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>1.14</v>
+        <v>250</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>262</v>
       </c>
       <c r="BH15" t="n">
-        <v>483.0</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>250</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>252</v>
+        <v>1.13</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>465.0</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>271</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>100.0</v>
       </c>
       <c r="BL15" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="BM15" t="s">
-        <v>254</v>
-      </c>
-      <c r="BN15" t="e">
-        <v>#N/A</v>
+        <v>278</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>279</v>
       </c>
       <c r="BO15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="BP15" t="s">
-        <v>266</v>
-      </c>
-      <c r="BQ15" t="n">
+      <c r="BP15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>287</v>
+      </c>
+      <c r="BR15" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.0220801E7</v>
+        <v>2.0220914E7</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C16" t="n">
-        <v>3.029374456E9</v>
+        <v>2.998436717E9</v>
       </c>
       <c r="D16" t="e">
         <v>#N/A</v>
@@ -4018,34 +4144,34 @@
         <v>#N/A</v>
       </c>
       <c r="F16" t="n">
-        <v>300.0</v>
+        <v>348.0</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" t="n">
-        <v>17696.0</v>
+        <v>12699.0</v>
       </c>
       <c r="I16" t="n">
-        <v>93029.0</v>
+        <v>99954.0</v>
       </c>
       <c r="J16" t="n">
-        <v>2503.0</v>
+        <v>2653.0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.646232433E9</v>
+        <v>1.269309566E9</v>
       </c>
       <c r="L16" t="n">
         <v>97.8</v>
       </c>
       <c r="M16" t="n">
-        <v>78.9</v>
+        <v>80.3</v>
       </c>
       <c r="N16" t="n">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="O16" t="n">
-        <v>94.3</v>
+        <v>93.5</v>
       </c>
       <c r="P16" t="e">
         <v>#N/A</v>
@@ -4054,171 +4180,174 @@
         <v>95.8</v>
       </c>
       <c r="R16" t="n">
-        <v>95.8</v>
+        <v>96.1</v>
       </c>
       <c r="S16" t="n">
-        <v>89.8</v>
+        <v>90.2</v>
       </c>
       <c r="T16" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="U16" t="n">
-        <v>58.9</v>
+        <v>61.6</v>
       </c>
       <c r="V16" t="n">
-        <v>22.6</v>
+        <v>20.1</v>
       </c>
       <c r="W16" t="n">
-        <v>57.6</v>
+        <v>58.8</v>
       </c>
       <c r="X16" t="n">
-        <v>22.3</v>
+        <v>21.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>83.1</v>
+        <v>75.1</v>
       </c>
       <c r="Z16" t="n">
-        <v>29995.0</v>
+        <v>29749.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>4942.0</v>
+        <v>5698.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>126.0</v>
+        <v>139.0</v>
       </c>
       <c r="AC16" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AD16" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AE16" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AF16" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>2.0220912E7</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>123</v>
+        <v>129</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>2.0220927E7</v>
       </c>
       <c r="AJ16" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AK16" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="AL16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AM16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AN16" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AO16" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="AP16" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="AQ16" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AR16" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>2.022012E7</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AU16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AV16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>14606.0</v>
+        <v>167</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.0220503E7</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>199</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW16" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AX16" t="n">
-        <v>38939.0</v>
+        <v>12905.0</v>
       </c>
       <c r="AY16" t="n">
-        <v>5.68743034E8</v>
+        <v>61000.0</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.232</v>
+        <v>7.87205E8</v>
       </c>
       <c r="BA16" t="n">
-        <v>2.454088919E9</v>
-      </c>
-      <c r="BB16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>207</v>
+        <v>0.282</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>2.790013E9</v>
+      </c>
+      <c r="BC16" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BD16" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="BE16" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="BF16" t="s">
-        <v>241</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>2.97</v>
+        <v>250</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>255</v>
       </c>
       <c r="BH16" t="n">
-        <v>450.0</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>247</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>252</v>
+        <v>1.14</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>483.0</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>274</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>150.0</v>
       </c>
       <c r="BL16" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="BM16" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="BN16" t="s">
-        <v>256</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>258</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>264</v>
-      </c>
-      <c r="BQ16" t="n">
+        <v>279</v>
+      </c>
+      <c r="BO16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BP16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>292</v>
+      </c>
+      <c r="BR16" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.0220914E7</v>
+        <v>2.0220801E7</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
       </c>
       <c r="C17" t="n">
-        <v>2.998436717E9</v>
+        <v>3.029374456E9</v>
       </c>
       <c r="D17" t="e">
         <v>#N/A</v>
@@ -4227,207 +4356,210 @@
         <v>#N/A</v>
       </c>
       <c r="F17" t="n">
-        <v>350.0</v>
+        <v>300.0</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H17" t="n">
-        <v>23379.0</v>
+        <v>17696.0</v>
       </c>
       <c r="I17" t="n">
-        <v>103889.0</v>
+        <v>93029.0</v>
       </c>
       <c r="J17" t="n">
-        <v>3028.0</v>
+        <v>2503.0</v>
       </c>
       <c r="K17" t="n">
-        <v>2.428824781E9</v>
+        <v>1.646232433E9</v>
       </c>
       <c r="L17" t="n">
         <v>97.8</v>
       </c>
       <c r="M17" t="n">
-        <v>78.2</v>
+        <v>78.9</v>
       </c>
       <c r="N17" t="n">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="O17" t="n">
-        <v>92.5</v>
+        <v>94.3</v>
       </c>
       <c r="P17" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="R17" t="n">
-        <v>95.3</v>
+        <v>95.8</v>
       </c>
       <c r="S17" t="n">
-        <v>88.1</v>
+        <v>89.8</v>
       </c>
       <c r="T17" t="n">
-        <v>7.9</v>
+        <v>8.4</v>
       </c>
       <c r="U17" t="n">
-        <v>60.4</v>
+        <v>58.9</v>
       </c>
       <c r="V17" t="n">
-        <v>19.9</v>
+        <v>22.6</v>
       </c>
       <c r="W17" t="n">
-        <v>62.9</v>
+        <v>57.6</v>
       </c>
       <c r="X17" t="n">
-        <v>15.5</v>
+        <v>22.3</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.4</v>
+        <v>83.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>30190.0</v>
+        <v>29995.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>6005.0</v>
+        <v>4942.0</v>
       </c>
       <c r="AB17" t="n">
-        <v>140.0</v>
+        <v>126.0</v>
       </c>
       <c r="AC17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AE17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>2.0220912E7</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.022012E7</v>
+      </c>
+      <c r="AU17" t="s">
         <v>121</v>
       </c>
-      <c r="AF17" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>2.0220927E7</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>154</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>155</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>171</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>2.0220517E7</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>185</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>190</v>
-      </c>
       <c r="AV17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AW17" t="n">
-        <v>18148.0</v>
+      <c r="AW17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AX17" t="n">
-        <v>93000.0</v>
+        <v>14606.0</v>
       </c>
       <c r="AY17" t="n">
-        <v>1.687764E9</v>
+        <v>38939.0</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.605</v>
+        <v>5.68743034E8</v>
       </c>
       <c r="BA17" t="n">
-        <v>2.790013E9</v>
-      </c>
-      <c r="BB17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BC17" t="s">
-        <v>208</v>
+        <v>0.232</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>2.454088919E9</v>
+      </c>
+      <c r="BC17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BD17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="BE17" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="BF17" t="s">
-        <v>242</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>1.14</v>
+        <v>250</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>263</v>
       </c>
       <c r="BH17" t="n">
-        <v>483.0</v>
-      </c>
-      <c r="BI17" t="s">
-        <v>250</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>252</v>
+        <v>2.97</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>270</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>30.0</v>
       </c>
       <c r="BL17" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="BM17" t="s">
-        <v>254</v>
-      </c>
-      <c r="BN17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BO17" t="e">
-        <v>#N/A</v>
+        <v>278</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>279</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>281</v>
       </c>
       <c r="BP17" t="s">
-        <v>266</v>
-      </c>
-      <c r="BQ17" t="n">
+        <v>283</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>289</v>
+      </c>
+      <c r="BR17" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.0220801E7</v>
+        <v>2.0220914E7</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C18" t="n">
-        <v>3.029374456E9</v>
+        <v>2.998436717E9</v>
       </c>
       <c r="D18" t="e">
         <v>#N/A</v>
@@ -4436,207 +4568,210 @@
         <v>#N/A</v>
       </c>
       <c r="F18" t="n">
-        <v>298.0</v>
+        <v>350.0</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H18" t="n">
-        <v>14743.0</v>
+        <v>23379.0</v>
       </c>
       <c r="I18" t="n">
-        <v>83952.0</v>
+        <v>103889.0</v>
       </c>
       <c r="J18" t="n">
-        <v>2126.0</v>
+        <v>3028.0</v>
       </c>
       <c r="K18" t="n">
-        <v>1.237706224E9</v>
+        <v>2.428824781E9</v>
       </c>
       <c r="L18" t="n">
-        <v>98.0</v>
+        <v>97.8</v>
       </c>
       <c r="M18" t="n">
-        <v>82.3</v>
+        <v>78.2</v>
       </c>
       <c r="N18" t="n">
-        <v>96.5</v>
+        <v>96.2</v>
       </c>
       <c r="O18" t="n">
-        <v>94.2</v>
+        <v>92.5</v>
       </c>
       <c r="P18" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q18" t="n">
-        <v>96.0</v>
+        <v>95.7</v>
       </c>
       <c r="R18" t="n">
-        <v>96.6</v>
+        <v>95.3</v>
       </c>
       <c r="S18" t="n">
-        <v>90.4</v>
+        <v>88.1</v>
       </c>
       <c r="T18" t="n">
-        <v>8.0</v>
+        <v>7.9</v>
       </c>
       <c r="U18" t="n">
-        <v>59.0</v>
+        <v>60.4</v>
       </c>
       <c r="V18" t="n">
-        <v>23.4</v>
+        <v>19.9</v>
       </c>
       <c r="W18" t="n">
-        <v>64.0</v>
+        <v>62.9</v>
       </c>
       <c r="X18" t="n">
-        <v>16.7</v>
+        <v>15.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>85.3</v>
+        <v>68.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>29313.0</v>
+        <v>30190.0</v>
       </c>
       <c r="AA18" t="n">
-        <v>4230.0</v>
+        <v>6005.0</v>
       </c>
       <c r="AB18" t="n">
-        <v>127.0</v>
+        <v>140.0</v>
       </c>
       <c r="AC18" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AD18" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AE18" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AF18" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>2.022083E7</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>123</v>
+        <v>129</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>2.0220927E7</v>
       </c>
       <c r="AJ18" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AK18" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AL18" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AM18" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AN18" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AO18" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="AP18" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="AQ18" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AR18" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>2.0220211E7</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AV18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>11091.0</v>
+        <v>167</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.0220517E7</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW18" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AX18" t="n">
-        <v>26561.0</v>
+        <v>18148.0</v>
       </c>
       <c r="AY18" t="n">
-        <v>2.94588051E8</v>
+        <v>93000.0</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.12</v>
+        <v>1.687764E9</v>
       </c>
       <c r="BA18" t="n">
-        <v>2.454088919E9</v>
-      </c>
-      <c r="BB18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BC18" t="s">
-        <v>209</v>
+        <v>0.605</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>2.790013E9</v>
+      </c>
+      <c r="BC18" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BD18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BE18" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="BF18" t="s">
-        <v>243</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>2.97</v>
+        <v>250</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>264</v>
       </c>
       <c r="BH18" t="n">
-        <v>450.0</v>
-      </c>
-      <c r="BI18" t="s">
-        <v>247</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>252</v>
+        <v>1.14</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>483.0</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>274</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>150.0</v>
       </c>
       <c r="BL18" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="BM18" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="BN18" t="s">
-        <v>256</v>
-      </c>
-      <c r="BO18" t="s">
-        <v>258</v>
-      </c>
-      <c r="BP18" t="s">
-        <v>264</v>
-      </c>
-      <c r="BQ18" t="n">
+        <v>279</v>
+      </c>
+      <c r="BO18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BP18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>292</v>
+      </c>
+      <c r="BR18" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.0220914E7</v>
+        <v>2.0220801E7</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C19" t="n">
-        <v>2.97731327E9</v>
+        <v>3.029374456E9</v>
       </c>
       <c r="D19" t="e">
         <v>#N/A</v>
@@ -4645,195 +4780,198 @@
         <v>#N/A</v>
       </c>
       <c r="F19" t="n">
-        <v>347.0</v>
+        <v>298.0</v>
       </c>
       <c r="G19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H19" t="n">
-        <v>10955.0</v>
+        <v>14743.0</v>
       </c>
       <c r="I19" t="n">
-        <v>121731.0</v>
+        <v>83952.0</v>
       </c>
       <c r="J19" t="n">
-        <v>2619.0</v>
+        <v>2126.0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.333565629E9</v>
+        <v>1.237706224E9</v>
       </c>
       <c r="L19" t="n">
-        <v>97.2</v>
+        <v>98.0</v>
       </c>
       <c r="M19" t="n">
-        <v>77.7</v>
+        <v>82.3</v>
       </c>
       <c r="N19" t="n">
-        <v>96.1</v>
+        <v>96.5</v>
       </c>
       <c r="O19" t="n">
-        <v>92.7</v>
+        <v>94.2</v>
       </c>
       <c r="P19" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.7</v>
+        <v>96.0</v>
       </c>
       <c r="R19" t="n">
-        <v>94.7</v>
+        <v>96.6</v>
       </c>
       <c r="S19" t="n">
-        <v>86.9</v>
+        <v>90.4</v>
       </c>
       <c r="T19" t="n">
-        <v>7.9</v>
+        <v>8.0</v>
       </c>
       <c r="U19" t="n">
-        <v>58.6</v>
+        <v>59.0</v>
       </c>
       <c r="V19" t="n">
-        <v>20.4</v>
+        <v>23.4</v>
       </c>
       <c r="W19" t="n">
-        <v>57.3</v>
+        <v>64.0</v>
       </c>
       <c r="X19" t="n">
-        <v>20.1</v>
+        <v>16.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>63.8</v>
+        <v>85.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>29872.0</v>
+        <v>29313.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>5200.0</v>
+        <v>4230.0</v>
       </c>
       <c r="AB19" t="n">
-        <v>135.0</v>
+        <v>127.0</v>
       </c>
       <c r="AC19" t="s">
         <v>100</v>
       </c>
       <c r="AD19" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE19" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AF19" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2.0220927E7</v>
-      </c>
-      <c r="AI19" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>2.022083E7</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.0220211E7</v>
+      </c>
+      <c r="AU19" t="s">
         <v>123</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>154</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>155</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>173</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>2.0220607E7</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>186</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>190</v>
-      </c>
       <c r="AV19" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AW19" t="n">
-        <v>9565.0</v>
+      <c r="AW19" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AX19" t="n">
-        <v>62000.0</v>
+        <v>11091.0</v>
       </c>
       <c r="AY19" t="n">
-        <v>5.9303E8</v>
+        <v>26561.0</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.236</v>
+        <v>2.94588051E8</v>
       </c>
       <c r="BA19" t="n">
-        <v>2.508142E9</v>
-      </c>
-      <c r="BB19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BC19" t="s">
-        <v>210</v>
+        <v>0.12</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>2.454088919E9</v>
+      </c>
+      <c r="BC19" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BD19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BE19" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="BF19" t="s">
-        <v>244</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>1.23</v>
+        <v>250</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>265</v>
       </c>
       <c r="BH19" t="n">
-        <v>544.0</v>
-      </c>
-      <c r="BI19" t="s">
-        <v>251</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>252</v>
+        <v>2.97</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>270</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>30.0</v>
       </c>
       <c r="BL19" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="BM19" t="s">
-        <v>254</v>
-      </c>
-      <c r="BN19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BO19" t="e">
-        <v>#N/A</v>
+        <v>278</v>
+      </c>
+      <c r="BN19" t="s">
+        <v>279</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>281</v>
       </c>
       <c r="BP19" t="s">
-        <v>267</v>
-      </c>
-      <c r="BQ19" t="n">
+        <v>283</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>289</v>
+      </c>
+      <c r="BR19" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -4842,10 +4980,10 @@
         <v>2.0220914E7</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" t="n">
-        <v>2.998436717E9</v>
+        <v>2.97731327E9</v>
       </c>
       <c r="D20" t="e">
         <v>#N/A</v>
@@ -4854,195 +4992,198 @@
         <v>#N/A</v>
       </c>
       <c r="F20" t="n">
-        <v>343.0</v>
+        <v>347.0</v>
       </c>
       <c r="G20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H20" t="n">
-        <v>9832.0</v>
+        <v>10955.0</v>
       </c>
       <c r="I20" t="n">
-        <v>95511.0</v>
+        <v>121731.0</v>
       </c>
       <c r="J20" t="n">
-        <v>2531.0</v>
+        <v>2619.0</v>
       </c>
       <c r="K20" t="n">
-        <v>9.39067735E8</v>
+        <v>1.333565629E9</v>
       </c>
       <c r="L20" t="n">
-        <v>97.6</v>
+        <v>97.2</v>
       </c>
       <c r="M20" t="n">
-        <v>75.3</v>
+        <v>77.7</v>
       </c>
       <c r="N20" t="n">
-        <v>96.2</v>
+        <v>96.1</v>
       </c>
       <c r="O20" t="n">
-        <v>94.0</v>
+        <v>92.7</v>
       </c>
       <c r="P20" t="e">
         <v>#N/A</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="R20" t="n">
-        <v>96.4</v>
+        <v>94.7</v>
       </c>
       <c r="S20" t="n">
-        <v>90.9</v>
+        <v>86.9</v>
       </c>
       <c r="T20" t="n">
-        <v>8.2</v>
+        <v>7.9</v>
       </c>
       <c r="U20" t="n">
-        <v>57.4</v>
+        <v>58.6</v>
       </c>
       <c r="V20" t="n">
-        <v>25.3</v>
+        <v>20.4</v>
       </c>
       <c r="W20" t="n">
-        <v>57.6</v>
+        <v>57.3</v>
       </c>
       <c r="X20" t="n">
-        <v>23.5</v>
+        <v>20.1</v>
       </c>
       <c r="Y20" t="n">
-        <v>81.8</v>
+        <v>63.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>29592.0</v>
+        <v>29872.0</v>
       </c>
       <c r="AA20" t="n">
-        <v>5347.0</v>
+        <v>5200.0</v>
       </c>
       <c r="AB20" t="n">
-        <v>138.0</v>
+        <v>135.0</v>
       </c>
       <c r="AC20" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AD20" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AE20" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AF20" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>2.0220923E7</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>123</v>
+        <v>129</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>2.0220927E7</v>
       </c>
       <c r="AJ20" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AK20" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="AL20" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AM20" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AN20" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="AO20" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="AP20" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="AQ20" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AR20" t="s">
-        <v>174</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>2.0220216E7</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>187</v>
+        <v>167</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.0220607E7</v>
       </c>
       <c r="AU20" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>9266.0</v>
+        <v>201</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW20" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AX20" t="n">
-        <v>34000.0</v>
+        <v>9565.0</v>
       </c>
       <c r="AY20" t="n">
-        <v>3.15044E8</v>
+        <v>62000.0</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.113</v>
+        <v>5.9303E8</v>
       </c>
       <c r="BA20" t="n">
-        <v>2.790013E9</v>
-      </c>
-      <c r="BB20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BC20" t="s">
-        <v>211</v>
+        <v>0.236</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>2.508142E9</v>
+      </c>
+      <c r="BC20" t="e">
+        <v>#N/A</v>
       </c>
       <c r="BD20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BE20" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="BF20" t="s">
-        <v>245</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>1.14</v>
+        <v>250</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>266</v>
       </c>
       <c r="BH20" t="n">
-        <v>483.0</v>
-      </c>
-      <c r="BI20" t="s">
-        <v>250</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="BK20" t="s">
-        <v>252</v>
+        <v>1.23</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>544.0</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>275</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>100.0</v>
       </c>
       <c r="BL20" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="BM20" t="s">
-        <v>254</v>
-      </c>
-      <c r="BN20" t="e">
-        <v>#N/A</v>
+        <v>278</v>
+      </c>
+      <c r="BN20" t="s">
+        <v>279</v>
       </c>
       <c r="BO20" t="e">
         <v>#N/A</v>
       </c>
-      <c r="BP20" t="s">
-        <v>266</v>
-      </c>
-      <c r="BQ20" t="n">
+      <c r="BP20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>293</v>
+      </c>
+      <c r="BR20" t="n">
         <v>19.0</v>
       </c>
     </row>
@@ -5051,208 +5192,635 @@
         <v>2.0220914E7</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C21" t="n">
+        <v>2.998436717E9</v>
+      </c>
+      <c r="D21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F21" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" t="n">
+        <v>9832.0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>95511.0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2531.0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>9.39067735E8</v>
+      </c>
+      <c r="L21" t="n">
+        <v>97.6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="O21" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="P21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="R21" t="n">
+        <v>96.4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>90.9</v>
+      </c>
+      <c r="T21" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="U21" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="W21" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="X21" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>29592.0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>5347.0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>2.0220923E7</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.0220216E7</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>9266.0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>34000.0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>3.15044E8</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>2.790013E9</v>
+      </c>
+      <c r="BC21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>229</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>247</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>250</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>267</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>483.0</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>274</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>277</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>278</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>279</v>
+      </c>
+      <c r="BO21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BP21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>292</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2.0220926E7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.834367715E9</v>
+      </c>
+      <c r="D22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F22" t="n">
+        <v>351.0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" t="n">
+        <v>8379.0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>104325.0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3652.0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>8.74143291E8</v>
+      </c>
+      <c r="L22" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="M22" t="n">
+        <v>64.6</v>
+      </c>
+      <c r="N22" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="O22" t="n">
+        <v>93.1</v>
+      </c>
+      <c r="P22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>93.6</v>
+      </c>
+      <c r="S22" t="n">
+        <v>86.9</v>
+      </c>
+      <c r="T22" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="U22" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="W22" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>29283.0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>9966.0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>2.0221005E7</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.0220803E7</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>203</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>90000.0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>9.0E8</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>2.7E9</v>
+      </c>
+      <c r="BC22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>230</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>248</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>250</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>268</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>467.0</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>276</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>277</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>278</v>
+      </c>
+      <c r="BN22" t="s">
+        <v>279</v>
+      </c>
+      <c r="BO22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BP22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>294</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2.0220914E7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="n">
         <v>2.97731327E9</v>
       </c>
-      <c r="D21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="D23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F23" t="n">
         <v>342.0</v>
       </c>
-      <c r="G21" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" t="n">
+      <c r="G23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" t="n">
         <v>13518.0</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I23" t="n">
         <v>86229.0</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J23" t="n">
         <v>3160.0</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K23" t="n">
         <v>1.165643785E9</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L23" t="n">
         <v>98.1</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M23" t="n">
         <v>69.2</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N23" t="n">
         <v>96.1</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O23" t="n">
         <v>93.6</v>
       </c>
-      <c r="P21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="P23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q23" t="n">
         <v>95.7</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R23" t="n">
         <v>96.6</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S23" t="n">
         <v>91.1</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T23" t="n">
         <v>8.0</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U23" t="n">
         <v>60.1</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V23" t="n">
         <v>23.1</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W23" t="n">
         <v>63.1</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X23" t="n">
         <v>18.3</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y23" t="n">
         <v>82.9</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z23" t="n">
         <v>29828.0</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA23" t="n">
         <v>7794.0</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AB23" t="n">
         <v>136.0</v>
       </c>
-      <c r="AC21" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH21" t="n">
+      <c r="AC23" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI23" t="n">
         <v>2.0220923E7</v>
       </c>
-      <c r="AI21" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP21" t="s">
+      <c r="AJ23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL23" t="s">
         <v>154</v>
       </c>
-      <c r="AQ21" t="s">
+      <c r="AM23" t="s">
         <v>155</v>
       </c>
-      <c r="AR21" t="s">
-        <v>175</v>
-      </c>
-      <c r="AS21" t="n">
+      <c r="AN23" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT23" t="n">
         <v>2.0220405E7</v>
       </c>
-      <c r="AT21" t="s">
-        <v>188</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AW21" t="n">
+      <c r="AU23" t="s">
+        <v>204</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX23" t="n">
         <v>11784.0</v>
       </c>
-      <c r="AX21" t="n">
+      <c r="AY23" t="n">
         <v>43000.0</v>
       </c>
-      <c r="AY21" t="n">
+      <c r="AZ23" t="n">
         <v>5.06712E8</v>
       </c>
-      <c r="AZ21" t="n">
+      <c r="BA23" t="n">
         <v>0.202</v>
       </c>
-      <c r="BA21" t="n">
+      <c r="BB23" t="n">
         <v>2.508142E9</v>
       </c>
-      <c r="BB21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BC21" t="s">
-        <v>199</v>
-      </c>
-      <c r="BD21" t="s">
-        <v>215</v>
-      </c>
-      <c r="BE21" t="s">
-        <v>229</v>
-      </c>
-      <c r="BF21" t="s">
-        <v>232</v>
-      </c>
-      <c r="BG21" t="n">
+      <c r="BC23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>216</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>250</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>253</v>
+      </c>
+      <c r="BH23" t="n">
         <v>1.23</v>
       </c>
-      <c r="BH21" t="n">
+      <c r="BI23" t="n">
         <v>544.0</v>
       </c>
-      <c r="BI21" t="s">
-        <v>251</v>
-      </c>
-      <c r="BJ21" t="n">
+      <c r="BJ23" t="s">
+        <v>275</v>
+      </c>
+      <c r="BK23" t="n">
         <v>100.0</v>
       </c>
-      <c r="BK21" t="s">
-        <v>252</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>253</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>254</v>
-      </c>
-      <c r="BN21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BO21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BP21" t="s">
-        <v>267</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>20.0</v>
+      <c r="BL23" t="s">
+        <v>277</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>278</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>279</v>
+      </c>
+      <c r="BO23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BP23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>293</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>22.0</v>
       </c>
     </row>
   </sheetData>
